--- a/data/fig3/TOFShift_FC.xlsx
+++ b/data/fig3/TOFShift_FC.xlsx
@@ -476,7 +476,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3965721541145572</v>
+        <v>0.3965721541145567</v>
       </c>
       <c r="D2" t="n">
         <v>0.267216894226418</v>
@@ -495,7 +495,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00231821311533908</v>
+        <v>0.004466496369156631</v>
       </c>
       <c r="D3" t="n">
         <v>-2.246947314841278</v>
@@ -514,7 +514,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2598285916040701</v>
+        <v>0.2598285916040741</v>
       </c>
       <c r="D4" t="n">
         <v>0.1302560888617379</v>
@@ -533,7 +533,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1784066663600553</v>
+        <v>-0.0700579445585116</v>
       </c>
       <c r="D5" t="n">
         <v>1.573884581482456</v>
@@ -552,7 +552,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1600054501732215</v>
+        <v>0.1608066251279884</v>
       </c>
       <c r="D6" t="n">
         <v>-0.312928085140483</v>
@@ -571,7 +571,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09387991541595411</v>
+        <v>-0.09387991541595514</v>
       </c>
       <c r="D7" t="n">
         <v>0.07349589302510241</v>
@@ -590,7 +590,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3322036955629358</v>
+        <v>0.3322036955629318</v>
       </c>
       <c r="D8" t="n">
         <v>0.4606391595778538</v>
@@ -609,7 +609,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4885545228025956</v>
+        <v>0.4885545228025917</v>
       </c>
       <c r="D9" t="n">
         <v>0.008415242603842042</v>
@@ -628,7 +628,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2299081474528798</v>
+        <v>0.2299081474528741</v>
       </c>
       <c r="D10" t="n">
         <v>0.4360320900352628</v>
@@ -647,7 +647,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.344609493977004</v>
+        <v>-0.6457577863630507</v>
       </c>
       <c r="D11" t="n">
         <v>-0.7460476966343322</v>
@@ -666,7 +666,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C12" t="n">
-        <v>1.068010205476033</v>
+        <v>-0.05827792808761467</v>
       </c>
       <c r="D12" t="n">
         <v>2.957048637549121</v>
@@ -685,7 +685,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.365858965058487</v>
+        <v>0.3658880803612947</v>
       </c>
       <c r="D13" t="n">
         <v>0.08292103591330272</v>
@@ -704,7 +704,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1385588050055993</v>
+        <v>0.1385588050056005</v>
       </c>
       <c r="D14" t="n">
         <v>0.06130457149501637</v>
@@ -723,7 +723,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3249567342255916</v>
+        <v>0.2858653739620234</v>
       </c>
       <c r="D15" t="n">
         <v>-0.7880682164553866</v>
@@ -742,7 +742,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.98638355004983</v>
+        <v>1.659596087475768</v>
       </c>
       <c r="D16" t="n">
         <v>-2.542464579407525</v>
@@ -761,7 +761,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2133551270366796</v>
+        <v>0.2133551270366854</v>
       </c>
       <c r="D17" t="n">
         <v>0.09751233705135055</v>
@@ -796,7 +796,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3328046841379684</v>
+        <v>0.3508876540382437</v>
       </c>
       <c r="E19" t="n">
         <v>0.3353678619119934</v>
@@ -812,7 +812,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2144143639129237</v>
+        <v>0.2148564337925611</v>
       </c>
       <c r="D20" t="n">
         <v>0.3072428073025288</v>
@@ -831,7 +831,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08339469458830807</v>
+        <v>0.1086427438946389</v>
       </c>
       <c r="D21" t="n">
         <v>2.075509711830746</v>
@@ -850,7 +850,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6634892705234494</v>
+        <v>1.170000766763795</v>
       </c>
       <c r="D22" t="n">
         <v>-0.3405553952122194</v>
@@ -869,7 +869,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3290144627585152</v>
+        <v>-0.3352901579350961</v>
       </c>
       <c r="D23" t="n">
         <v>0.541694323949908</v>
@@ -888,7 +888,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01590215879262415</v>
+        <v>0.03072758283280048</v>
       </c>
       <c r="D24" t="n">
         <v>-0.001381307548612041</v>
@@ -907,7 +907,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2315861220691897</v>
+        <v>-0.8326203518102445</v>
       </c>
       <c r="D25" t="n">
         <v>0.1535281051324429</v>
@@ -926,7 +926,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1404433007037547</v>
+        <v>-0.1452686048911222</v>
       </c>
       <c r="D26" t="n">
         <v>-0.03733692108875213</v>
@@ -945,7 +945,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2725182566628728</v>
+        <v>0.6293688183952767</v>
       </c>
       <c r="D27" t="n">
         <v>0.3047315373271774</v>
@@ -964,7 +964,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3313093311816713</v>
+        <v>0.3294281973981115</v>
       </c>
       <c r="E28" t="n">
         <v>0.3467207915809147</v>
@@ -980,7 +980,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1656780303421264</v>
+        <v>0.1590466802424428</v>
       </c>
       <c r="D29" t="n">
         <v>0.1230253215962447</v>
@@ -998,12 +998,6 @@
       <c r="B30" t="n">
         <v>0.4222330006830478</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.5278041925724031</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5195636087297392</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1015,7 +1009,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2178634679629022</v>
+        <v>0.220612830912926</v>
       </c>
       <c r="D31" t="n">
         <v>0.2502798309150316</v>
@@ -1034,7 +1028,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1299018010165967</v>
+        <v>0.1299018010165976</v>
       </c>
       <c r="D32" t="n">
         <v>0.4255432669783774</v>
@@ -1053,7 +1047,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1757233553186031</v>
+        <v>0.175723355318609</v>
       </c>
       <c r="D33" t="n">
         <v>0.2636292393576258</v>
@@ -1072,7 +1066,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.520778095472597</v>
+        <v>-1.304796139856886</v>
       </c>
       <c r="D34" t="n">
         <v>0.3724900548846849</v>
@@ -1091,7 +1085,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08368045976583492</v>
+        <v>0.08368045976584006</v>
       </c>
       <c r="D35" t="n">
         <v>0.774680095234517</v>
@@ -1110,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.4838921427060093</v>
+        <v>-0.375859373630418</v>
       </c>
       <c r="D36" t="n">
         <v>0.02370866682448186</v>
@@ -1129,7 +1123,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4207486197478668</v>
+        <v>0.4207486197478699</v>
       </c>
       <c r="E37" t="n">
         <v>0.467295429894534</v>
@@ -1145,7 +1139,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05273566326368411</v>
+        <v>0.05159419654736003</v>
       </c>
       <c r="E38" t="n">
         <v>0.0498044027545702</v>
@@ -1177,7 +1171,7 @@
         <v>0.6415460290875237</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6077791140770349</v>
+        <v>0.9081792915770925</v>
       </c>
       <c r="E40" t="n">
         <v>0.7878130457553894</v>
@@ -1193,7 +1187,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1379168401225083</v>
+        <v>0.1376318070205437</v>
       </c>
       <c r="D41" t="n">
         <v>-0.7100812871217926</v>
@@ -1212,7 +1206,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3552702560920921</v>
+        <v>0.3295227639533</v>
       </c>
       <c r="D42" t="n">
         <v>-11.78458244531863</v>
@@ -1231,7 +1225,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1739593834842071</v>
+        <v>-0.1111518332560198</v>
       </c>
       <c r="D43" t="n">
         <v>1.74692727680084</v>
@@ -1250,7 +1244,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2824918985930635</v>
+        <v>0.2824918985930648</v>
       </c>
       <c r="D44" t="n">
         <v>0.3352114764742172</v>
@@ -1269,7 +1263,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08517994239760741</v>
+        <v>0.09079765723637448</v>
       </c>
       <c r="D45" t="n">
         <v>0.1997738391245572</v>
@@ -1288,7 +1282,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C46" t="n">
-        <v>0.116214545425425</v>
+        <v>0.1162145454254291</v>
       </c>
       <c r="D46" t="n">
         <v>0.1228710195424705</v>
@@ -1307,7 +1301,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07709052702610589</v>
+        <v>0.07683698441051709</v>
       </c>
       <c r="D47" t="n">
         <v>0.1193790235820961</v>
@@ -1326,7 +1320,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3481647979526266</v>
+        <v>0.3455800501889192</v>
       </c>
       <c r="D48" t="n">
         <v>0.365550796283839</v>
@@ -1345,7 +1339,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2378868186615347</v>
+        <v>0.2507316956388115</v>
       </c>
       <c r="D49" t="n">
         <v>0.1373268306050826</v>
@@ -1364,7 +1358,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1333575842284406</v>
+        <v>0.1333575842284414</v>
       </c>
       <c r="D50" t="n">
         <v>0.2120794029838931</v>
@@ -1383,7 +1377,7 @@
         <v>0.5558161550616397</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6470511970414868</v>
+        <v>0.6472521248346998</v>
       </c>
       <c r="D51" t="n">
         <v>0.1762710983930409</v>
@@ -1402,7 +1396,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3356270781044897</v>
+        <v>0.3331000236120028</v>
       </c>
       <c r="D52" t="n">
         <v>12.93192767962968</v>
@@ -1421,7 +1415,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4112416446980883</v>
+        <v>0.4055680084034408</v>
       </c>
       <c r="D53" t="n">
         <v>-0.2156879599241612</v>
@@ -1440,7 +1434,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1678867230553176</v>
+        <v>1.54062687743901</v>
       </c>
       <c r="D54" t="n">
         <v>0.2448281162187359</v>
@@ -1459,7 +1453,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3081436862102276</v>
+        <v>0.3081436862102263</v>
       </c>
       <c r="E55" t="n">
         <v>0.2541948365502033</v>
@@ -1475,7 +1469,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3320477305114197</v>
+        <v>0.3320477305114167</v>
       </c>
       <c r="D56" t="n">
         <v>0.3125098838162746</v>
@@ -1494,7 +1488,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3815191311103396</v>
+        <v>0.381519131110345</v>
       </c>
       <c r="D57" t="n">
         <v>-0.09813316393412359</v>
@@ -1513,7 +1507,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8599950234965772</v>
+        <v>0.8698053484572495</v>
       </c>
       <c r="D58" t="n">
         <v>10.55399073319645</v>
@@ -1532,7 +1526,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07411529229761109</v>
+        <v>0.07573070960855499</v>
       </c>
       <c r="D59" t="n">
         <v>-2.285782309166307</v>
@@ -1551,7 +1545,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4059113991349649</v>
+        <v>0.4046608121328714</v>
       </c>
       <c r="D60" t="n">
         <v>0.4863249697750914</v>
@@ -1570,7 +1564,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1400920440681122</v>
+        <v>0.1264911497976002</v>
       </c>
       <c r="D61" t="n">
         <v>0.03659111297393305</v>
@@ -1589,7 +1583,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1300608835364441</v>
+        <v>0.4229808037416805</v>
       </c>
       <c r="D62" t="n">
         <v>-0.3898882046050485</v>
@@ -1608,7 +1602,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.08087000352909206</v>
+        <v>-0.0828783382413202</v>
       </c>
       <c r="D63" t="n">
         <v>0.3932819870144741</v>
@@ -1627,7 +1621,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3745645889644356</v>
+        <v>-0.0486021346949316</v>
       </c>
       <c r="D64" t="n">
         <v>0.40077676128803</v>
@@ -1646,7 +1640,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.2423981525163219</v>
+        <v>-0.2444684455300926</v>
       </c>
       <c r="D65" t="n">
         <v>-0.09303155895352197</v>
@@ -1665,7 +1659,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1389737357208093</v>
+        <v>0.1389737357208088</v>
       </c>
       <c r="D66" t="n">
         <v>0.5395833124335723</v>
@@ -1684,7 +1678,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06080724059496787</v>
+        <v>1.407402475431275</v>
       </c>
       <c r="D67" t="n">
         <v>-0.01028984931914002</v>
@@ -1703,7 +1697,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2296500467059374</v>
+        <v>0.06335390973196529</v>
       </c>
       <c r="D68" t="n">
         <v>-1.41241690991987</v>
@@ -1722,7 +1716,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1836945704762246</v>
+        <v>0.1728459767671723</v>
       </c>
       <c r="D69" t="n">
         <v>-0.4182075657425856</v>
@@ -1741,7 +1735,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02446246731423498</v>
+        <v>0.02558431421438347</v>
       </c>
       <c r="D70" t="n">
         <v>-1.109114546888591</v>
@@ -1760,7 +1754,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C71" t="n">
-        <v>0.130936371119001</v>
+        <v>0.1309363711190036</v>
       </c>
       <c r="D71" t="n">
         <v>-0.2461587180456118</v>
@@ -1779,7 +1773,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1663416012371483</v>
+        <v>0.1663416012371528</v>
       </c>
       <c r="D72" t="n">
         <v>0.5795445459796872</v>
@@ -1798,14 +1792,11 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1882674222454545</v>
+        <v>-0.1813354491658884</v>
       </c>
       <c r="D73" t="n">
         <v>0.332309223917641</v>
       </c>
-      <c r="E73" t="n">
-        <v>0.1871366669442374</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1817,7 +1808,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2511259733438673</v>
+        <v>0.4774321701826466</v>
       </c>
       <c r="D74" t="n">
         <v>0.1703999398810354</v>
@@ -1836,7 +1827,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5889950053690647</v>
+        <v>0.5909851769328466</v>
       </c>
       <c r="D75" t="n">
         <v>0.2398903229034675</v>
@@ -1855,7 +1846,7 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3581439355544859</v>
+        <v>1.105665657604771</v>
       </c>
       <c r="D76" t="n">
         <v>0.3329366467739042</v>
@@ -1874,7 +1865,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2227934079207074</v>
+        <v>0.2462982234732145</v>
       </c>
       <c r="D77" t="n">
         <v>2.323826914250122</v>
@@ -1893,7 +1884,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1009956071617851</v>
+        <v>-0.1009956071617858</v>
       </c>
       <c r="D78" t="n">
         <v>0.5042490632709228</v>
@@ -1912,7 +1903,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1266944772632311</v>
+        <v>0.1192545823745897</v>
       </c>
       <c r="D79" t="n">
         <v>-0.04686757835874649</v>
@@ -1931,7 +1922,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3715836650367002</v>
+        <v>0.3715836650366978</v>
       </c>
       <c r="D80" t="n">
         <v>-2.916115701567224</v>
@@ -1950,7 +1941,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4026630113520883</v>
+        <v>0.405929511766713</v>
       </c>
       <c r="D81" t="n">
         <v>1.030672240312162</v>
@@ -1969,14 +1960,11 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1902105740807795</v>
+        <v>0.04378397130922543</v>
       </c>
       <c r="D82" t="n">
         <v>0.4251798185812097</v>
       </c>
-      <c r="E82" t="n">
-        <v>0.1683629692115784</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1988,7 +1976,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4258522934405826</v>
+        <v>0.4247381992025162</v>
       </c>
       <c r="D83" t="n">
         <v>0.7555587976267991</v>
@@ -2007,7 +1995,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6823143095538395</v>
+        <v>0.5230876165688964</v>
       </c>
       <c r="D84" t="n">
         <v>1.116871540489168</v>
@@ -2026,7 +2014,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1063760600555011</v>
+        <v>0.1066070542633072</v>
       </c>
       <c r="D85" t="n">
         <v>0.5438055499991101</v>
@@ -2045,7 +2033,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2772067530477009</v>
+        <v>0.2743279923685121</v>
       </c>
       <c r="D86" t="n">
         <v>0.2441451175338552</v>
@@ -2064,7 +2052,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4113597980637411</v>
+        <v>0.4113597980637367</v>
       </c>
       <c r="D87" t="n">
         <v>-0.007130319829442264</v>
@@ -2083,7 +2071,7 @@
         <v>0.6040713236688608</v>
       </c>
       <c r="C88" t="n">
-        <v>1.097736128549113</v>
+        <v>1.115051518492165</v>
       </c>
       <c r="D88" t="n">
         <v>-0.005764545368665265</v>
@@ -2102,7 +2090,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1666783615315499</v>
+        <v>0.1666783615315524</v>
       </c>
       <c r="D89" t="n">
         <v>0.03870415479026558</v>
@@ -2121,7 +2109,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.005139203717164468</v>
+        <v>-0.02128895529924885</v>
       </c>
       <c r="D90" t="n">
         <v>0.7510952341548721</v>
@@ -2140,7 +2128,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1176446112528298</v>
+        <v>0.1183385267837313</v>
       </c>
       <c r="D91" t="n">
         <v>0.4899703757725533</v>
@@ -2159,7 +2147,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C92" t="n">
-        <v>0.806840539596169</v>
+        <v>5.093749220658272</v>
       </c>
       <c r="D92" t="n">
         <v>3.274664075302113</v>
@@ -2194,7 +2182,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C94" t="n">
-        <v>1.740759823461098</v>
+        <v>0.6025398037723975</v>
       </c>
       <c r="D94" t="n">
         <v>8.824764469468159</v>
@@ -2213,7 +2201,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2737232768432392</v>
+        <v>0.2744573393912426</v>
       </c>
       <c r="E95" t="n">
         <v>0.2252681350502005</v>
@@ -2229,7 +2217,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2323713562580068</v>
+        <v>-0.2307536910256159</v>
       </c>
       <c r="D96" t="n">
         <v>-0.1162371232800544</v>
@@ -2248,7 +2236,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1674577786285462</v>
+        <v>0.1690826658518381</v>
       </c>
       <c r="D97" t="n">
         <v>-1.306965170158712</v>
@@ -2267,7 +2255,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2400394743867618</v>
+        <v>0.240039474386767</v>
       </c>
       <c r="D98" t="n">
         <v>-0.2825274590599601</v>
@@ -2286,7 +2274,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7439957405097335</v>
+        <v>-0.4391771625181627</v>
       </c>
       <c r="D99" t="n">
         <v>-12.11328999326411</v>
@@ -2305,7 +2293,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C100" t="n">
-        <v>1.221181173041861</v>
+        <v>1.069398658057285</v>
       </c>
       <c r="D100" t="n">
         <v>0.2980266611047566</v>
@@ -2324,7 +2312,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1287144342350261</v>
+        <v>0.1320338562630373</v>
       </c>
       <c r="D101" t="n">
         <v>0.01944113198749398</v>
@@ -2343,7 +2331,7 @@
         <v>0.6780719051126377</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5096351513123241</v>
+        <v>0.9928495663296529</v>
       </c>
       <c r="D102" t="n">
         <v>0.7482910730083923</v>
@@ -2362,14 +2350,11 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3962947480736024</v>
+        <v>-0.05587486228118623</v>
       </c>
       <c r="D103" t="n">
         <v>-10.73899975363576</v>
       </c>
-      <c r="E103" t="n">
-        <v>0.4032452688083777</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2381,7 +2366,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1611547918145803</v>
+        <v>0.1624142500107196</v>
       </c>
       <c r="E104" t="n">
         <v>0.1485443299138752</v>
@@ -2397,7 +2382,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C105" t="n">
-        <v>4.380987705619939</v>
+        <v>1.854686518618316</v>
       </c>
       <c r="D105" t="n">
         <v>-4.806259458381108</v>
@@ -2416,7 +2401,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.05244017224238393</v>
       </c>
       <c r="D106" t="n">
         <v>0.7138703825819566</v>
@@ -2435,7 +2420,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4348874821675928</v>
+        <v>0.4348874821675933</v>
       </c>
       <c r="D107" t="n">
         <v>0.5050821686966397</v>
@@ -2454,7 +2439,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2239214451996997</v>
+        <v>0.2239214451996999</v>
       </c>
       <c r="D108" t="n">
         <v>-14.06515578367107</v>
@@ -2473,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.05205764965112196</v>
+        <v>0.05232139646006104</v>
       </c>
       <c r="D109" t="n">
         <v>-0.08137041297625063</v>
@@ -2508,7 +2493,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C111" t="n">
-        <v>0.00311183719976961</v>
+        <v>-0.001680064286725556</v>
       </c>
       <c r="D111" t="n">
         <v>0.2623093821779118</v>
@@ -2527,7 +2512,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C112" t="n">
-        <v>0.131661779885893</v>
+        <v>0.1337376669264859</v>
       </c>
       <c r="D112" t="n">
         <v>2.219247961461474</v>
@@ -2546,7 +2531,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.229111552859501</v>
+        <v>-1.641612924579909</v>
       </c>
       <c r="D113" t="n">
         <v>-6.293785456299254</v>
@@ -2565,7 +2550,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5143502595040846</v>
+        <v>0.5143502595040879</v>
       </c>
       <c r="E114" t="n">
         <v>0.6082691432226288</v>
@@ -2600,7 +2585,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3771946947817389</v>
+        <v>0.3774646134275449</v>
       </c>
       <c r="D116" t="n">
         <v>-0.09773103441210575</v>
@@ -2619,7 +2604,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C117" t="n">
-        <v>0.355407784640504</v>
+        <v>0.3554077846405</v>
       </c>
       <c r="D117" t="n">
         <v>0.3342806632605688</v>
@@ -2638,7 +2623,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0151306179805473</v>
+        <v>0.02481421123463074</v>
       </c>
       <c r="D118" t="n">
         <v>2.325647306685039</v>
@@ -2657,7 +2642,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C119" t="n">
-        <v>0.05506606029502513</v>
+        <v>0.1458310743860904</v>
       </c>
       <c r="D119" t="n">
         <v>-0.7783700966360706</v>
@@ -2676,7 +2661,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2763901181655413</v>
+        <v>0.2763901181655424</v>
       </c>
       <c r="D120" t="n">
         <v>-9.723607667702906</v>
@@ -2695,7 +2680,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2450177799793666</v>
+        <v>0.2450177799793704</v>
       </c>
       <c r="D121" t="n">
         <v>0.7100208570656131</v>
@@ -2714,7 +2699,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.004892497957317244</v>
+        <v>0.058351604357562</v>
       </c>
       <c r="D122" t="n">
         <v>-0.02335412900881656</v>
@@ -2749,7 +2734,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6511760076919417</v>
+        <v>0.6502836068557517</v>
       </c>
       <c r="D124" t="n">
         <v>-0.2367127479681075</v>
@@ -2768,7 +2753,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4070719909172771</v>
+        <v>0.4062606597428081</v>
       </c>
       <c r="D125" t="n">
         <v>-0.3417611188006845</v>
@@ -2787,7 +2772,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3016779916069452</v>
+        <v>0.302919070513492</v>
       </c>
       <c r="D126" t="n">
         <v>0.5209468353211906</v>
@@ -2806,7 +2791,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4883059391126161</v>
+        <v>0.09916592012464909</v>
       </c>
       <c r="D127" t="n">
         <v>0.4028152829869456</v>
@@ -2825,7 +2810,7 @@
         <v>0.5849625007211562</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4401462583949948</v>
+        <v>0.440035707050811</v>
       </c>
       <c r="D128" t="n">
         <v>0.4818713161040597</v>
@@ -2844,7 +2829,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1633231020488861</v>
+        <v>0.1630791356932031</v>
       </c>
       <c r="D129" t="n">
         <v>-0.3989444535766896</v>
@@ -2863,7 +2848,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4129722655868595</v>
+        <v>0.4131629091339978</v>
       </c>
       <c r="D130" t="n">
         <v>7.784769766492217</v>
@@ -2882,7 +2867,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.2502602410071202</v>
+        <v>0.1308299371357601</v>
       </c>
       <c r="D131" t="n">
         <v>-0.1280974543791517</v>
@@ -2901,7 +2886,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01494523567432365</v>
+        <v>0.01510861204513524</v>
       </c>
       <c r="E132" t="n">
         <v>-0.05638708396131412</v>
@@ -2917,7 +2902,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1393331623748421</v>
+        <v>-0.08140703774651584</v>
       </c>
       <c r="D133" t="n">
         <v>13.73454647376959</v>
@@ -2936,7 +2921,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3569467696701395</v>
+        <v>0.3538154728406172</v>
       </c>
       <c r="D134" t="n">
         <v>0.4348543386333322</v>
@@ -2955,7 +2940,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4912761124715891</v>
+        <v>-0.1977755509136495</v>
       </c>
       <c r="D135" t="n">
         <v>0.08105408078065723</v>
@@ -2974,14 +2959,11 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.155604589238885</v>
+        <v>-4.639824267330957</v>
       </c>
       <c r="D136" t="n">
         <v>0.5512999221489548</v>
       </c>
-      <c r="E136" t="n">
-        <v>0.1927477545356418</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2993,7 +2975,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2993303273221907</v>
+        <v>0.2993303273221941</v>
       </c>
       <c r="D137" t="n">
         <v>-11.99929522871168</v>
@@ -3012,7 +2994,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2127462839989054</v>
+        <v>0.2127462839989013</v>
       </c>
       <c r="D138" t="n">
         <v>0.2676474720424577</v>
@@ -3047,7 +3029,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06213011386016989</v>
+        <v>0.5098106144999284</v>
       </c>
       <c r="D140" t="n">
         <v>0.3079010039425113</v>
@@ -3066,7 +3048,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2325772883104202</v>
+        <v>0.2325772883104188</v>
       </c>
       <c r="D141" t="n">
         <v>0.03774547015936253</v>
@@ -3085,7 +3067,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226722632773199</v>
+        <v>0.1894732645750074</v>
       </c>
       <c r="D142" t="n">
         <v>1.6662191607384</v>
@@ -3104,7 +3086,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2897836253741085</v>
+        <v>0.2837356832370524</v>
       </c>
       <c r="D143" t="n">
         <v>-2.565654608219611</v>
@@ -3123,7 +3105,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1182806185279085</v>
+        <v>0.05875376033802007</v>
       </c>
       <c r="D144" t="n">
         <v>-1.066680629630457</v>
@@ -3142,7 +3124,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2457188795367416</v>
+        <v>0.2466553304659637</v>
       </c>
       <c r="D145" t="n">
         <v>2.600411413196052</v>
@@ -3161,7 +3143,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1542611938139604</v>
+        <v>0.1542611938139655</v>
       </c>
       <c r="D146" t="n">
         <v>0.2664158125137286</v>
@@ -3180,14 +3162,11 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5855605058813769</v>
+        <v>0.5876032386616816</v>
       </c>
       <c r="D147" t="n">
         <v>3.895226290689547</v>
       </c>
-      <c r="E147" t="n">
-        <v>0.1562582892256971</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3199,7 +3178,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C148" t="n">
-        <v>0.133094253968189</v>
+        <v>0.1332371162786381</v>
       </c>
       <c r="D148" t="n">
         <v>0.001265049482357462</v>
@@ -3234,7 +3213,7 @@
         <v>0.6135316529179271</v>
       </c>
       <c r="C150" t="n">
-        <v>0.08377230696642657</v>
+        <v>0.3041682783504024</v>
       </c>
       <c r="D150" t="n">
         <v>0.4143712103738365</v>
@@ -3272,7 +3251,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.621854955681195</v>
+        <v>7.646658599114449</v>
       </c>
       <c r="D152" t="n">
         <v>1.581338958906818</v>
@@ -3291,7 +3270,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.6255905833922041</v>
+        <v>0.6059494377290671</v>
       </c>
       <c r="D153" t="n">
         <v>-8.283398536654918</v>
@@ -3310,7 +3289,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2446902330168317</v>
+        <v>0.1871636065638772</v>
       </c>
       <c r="D154" t="n">
         <v>-0.2815034863302056</v>
@@ -3329,7 +3308,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1603050523377222</v>
+        <v>0.1603050523377225</v>
       </c>
       <c r="D155" t="n">
         <v>9.987208461295676</v>
@@ -3348,7 +3327,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.120442005411059</v>
+        <v>-0.1202731087157394</v>
       </c>
       <c r="D156" t="n">
         <v>-0.2694979214301947</v>
@@ -3367,7 +3346,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.3588513266569076</v>
+        <v>-1.287309126940401</v>
       </c>
       <c r="D157" t="n">
         <v>-2.857991529048463</v>
@@ -3386,7 +3365,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C158" t="n">
-        <v>0.05889368905356861</v>
+        <v>0.07610167030577744</v>
       </c>
       <c r="D158" t="n">
         <v>-6.485399399262834</v>
@@ -3405,7 +3384,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2528770741799579</v>
+        <v>0.252877074179963</v>
       </c>
       <c r="D159" t="n">
         <v>-0.1518706507232891</v>
@@ -3424,7 +3403,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5216009482077562</v>
+        <v>0.5297164779442552</v>
       </c>
       <c r="D160" t="n">
         <v>0.2127250913780355</v>
@@ -3443,14 +3422,11 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2093916359317685</v>
+        <v>-0.2976841930523537</v>
       </c>
       <c r="D161" t="n">
         <v>-2.753603097943235</v>
       </c>
-      <c r="E161" t="n">
-        <v>0.2624832307564736</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3462,7 +3438,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.3203103918455028</v>
+        <v>-0.295690735397257</v>
       </c>
       <c r="D162" t="n">
         <v>2.102234156041312</v>
@@ -3481,7 +3457,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1339853016233592</v>
+        <v>-0.1017155913818737</v>
       </c>
       <c r="D163" t="n">
         <v>-0.1968613884738555</v>
@@ -3500,7 +3476,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C164" t="n">
-        <v>1.130569832865095</v>
+        <v>0.2506416316449024</v>
       </c>
       <c r="D164" t="n">
         <v>0.2786305841202104</v>
@@ -3519,7 +3495,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C165" t="n">
-        <v>0.08707991667603539</v>
+        <v>0.07696393738179307</v>
       </c>
       <c r="D165" t="n">
         <v>-0.007273532080288725</v>
@@ -3538,7 +3514,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1724702209967133</v>
+        <v>0.1724702209967116</v>
       </c>
       <c r="D166" t="n">
         <v>0.5546111648759812</v>
@@ -3557,7 +3533,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.305945210396306</v>
+        <v>0.3215209436838917</v>
       </c>
       <c r="D167" t="n">
         <v>2.648527404167256</v>
@@ -3576,7 +3552,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3566832363077941</v>
+        <v>0.3566832363077886</v>
       </c>
       <c r="D168" t="n">
         <v>0.268780625923822</v>
@@ -3595,7 +3571,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1249310095663671</v>
+        <v>-0.08797642569553005</v>
       </c>
       <c r="D169" t="n">
         <v>1.629585028139832</v>
@@ -3614,7 +3590,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0948778051741878</v>
+        <v>1.21967902020604</v>
       </c>
       <c r="E170" t="n">
         <v>0.4898462415146163</v>
@@ -3630,7 +3606,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C171" t="n">
-        <v>0.007532280358488998</v>
+        <v>-0.02002596733082039</v>
       </c>
       <c r="D171" t="n">
         <v>0.2398585368458742</v>
@@ -3665,7 +3641,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.1445646287293836</v>
+        <v>0.2800951456610378</v>
       </c>
       <c r="D173" t="n">
         <v>0.4161768414703691</v>
@@ -3684,7 +3660,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2040187181297035</v>
+        <v>0.2040187181297085</v>
       </c>
       <c r="D174" t="n">
         <v>-0.4076344243695987</v>
@@ -3703,7 +3679,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C175" t="n">
-        <v>0.457333431325196</v>
+        <v>0.4525553869851622</v>
       </c>
       <c r="D175" t="n">
         <v>-7.958385278353601</v>
@@ -3722,7 +3698,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7714978307700974</v>
+        <v>0.9930810526264979</v>
       </c>
       <c r="D176" t="n">
         <v>-0.07247345961339383</v>
@@ -3741,7 +3717,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1070570448207546</v>
+        <v>0.07904669485954705</v>
       </c>
       <c r="D177" t="n">
         <v>0.1547021514877306</v>
@@ -3760,7 +3736,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4191947116333398</v>
+        <v>0.300836673388705</v>
       </c>
       <c r="D178" t="n">
         <v>-1.927947838611514</v>
@@ -3779,7 +3755,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2999477115902933</v>
+        <v>0.8229800409681356</v>
       </c>
       <c r="D179" t="n">
         <v>17.42774447157988</v>
@@ -3798,7 +3774,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C180" t="n">
-        <v>0.227407135617642</v>
+        <v>0.2274071356176376</v>
       </c>
       <c r="D180" t="n">
         <v>0.3189858160667406</v>
@@ -3817,7 +3793,7 @@
         <v>0.4646682670034443</v>
       </c>
       <c r="C181" t="n">
-        <v>0.3915323972223668</v>
+        <v>0.3906979082202354</v>
       </c>
       <c r="D181" t="n">
         <v>0.2737282989175537</v>
@@ -3836,7 +3812,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2035900835178066</v>
+        <v>0.2035900835178005</v>
       </c>
       <c r="D182" t="n">
         <v>0.2675814874594638</v>
@@ -3855,7 +3831,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C183" t="n">
-        <v>0.102120992699842</v>
+        <v>0.06713804186048096</v>
       </c>
       <c r="D183" t="n">
         <v>-0.1237525523111724</v>
@@ -3874,7 +3850,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5668296753128105</v>
+        <v>0.1308190655069168</v>
       </c>
       <c r="D184" t="n">
         <v>0.1982681719809462</v>
@@ -3893,7 +3869,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.2226584601387552</v>
+        <v>0.1513962280371719</v>
       </c>
       <c r="D185" t="n">
         <v>-0.3430576757886661</v>
@@ -3912,7 +3888,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.03908735607009062</v>
+        <v>-0.1226852067956027</v>
       </c>
       <c r="D186" t="n">
         <v>-3.606449855049766</v>
@@ -3931,7 +3907,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3618873733635127</v>
+        <v>0.3610986921680394</v>
       </c>
       <c r="D187" t="n">
         <v>0.3440639583955895</v>
@@ -3950,7 +3926,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C188" t="n">
-        <v>0.02137007333200757</v>
+        <v>0.03173686922191749</v>
       </c>
       <c r="D188" t="n">
         <v>1.311180219166999</v>
@@ -3969,7 +3945,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8329548057258388</v>
+        <v>0.9963040908690637</v>
       </c>
       <c r="D189" t="n">
         <v>0.4676314220413367</v>
@@ -3988,7 +3964,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7028087953072657</v>
+        <v>0.3120948313200806</v>
       </c>
       <c r="D190" t="n">
         <v>2.803014871388221</v>
@@ -4007,7 +3983,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3734764768824278</v>
+        <v>0.3417239274861811</v>
       </c>
       <c r="D191" t="n">
         <v>0.1063446844282829</v>
@@ -4026,7 +4002,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.8516661754805888</v>
+        <v>-0.8086428685974349</v>
       </c>
       <c r="D192" t="n">
         <v>0.2332431856579019</v>
@@ -4045,7 +4021,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1274410118418342</v>
+        <v>0.1264182980802358</v>
       </c>
       <c r="E193" t="n">
         <v>0.04422363374286363</v>
@@ -4061,7 +4037,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.596826322512001</v>
+        <v>-0.1165281868820838</v>
       </c>
       <c r="D194" t="n">
         <v>10.02992559519712</v>
@@ -4080,7 +4056,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C195" t="n">
-        <v>0.389117335558037</v>
+        <v>0.3891173355580408</v>
       </c>
       <c r="D195" t="n">
         <v>0.4998642385256316</v>
@@ -4099,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.03892836624041843</v>
+        <v>0.05141869771681659</v>
       </c>
       <c r="E196" t="n">
         <v>0.04248582077451294</v>
@@ -4115,7 +4091,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3671206137782568</v>
+        <v>0.3672853896382793</v>
       </c>
       <c r="D197" t="n">
         <v>0.3964318339914242</v>
@@ -4134,7 +4110,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.06093521753741875</v>
+        <v>-0.1052206185127265</v>
       </c>
       <c r="D198" t="n">
         <v>-2.022483600837131</v>
@@ -4153,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1491474192804593</v>
+        <v>-0.1487453863836436</v>
       </c>
       <c r="D199" t="n">
         <v>-0.1218960816596816</v>
@@ -4172,7 +4148,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1883311543851102</v>
+        <v>0.193249788035783</v>
       </c>
       <c r="D200" t="n">
         <v>0.1968391590550461</v>
@@ -4191,7 +4167,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1130849711567185</v>
+        <v>0.1126825233073937</v>
       </c>
       <c r="D201" t="n">
         <v>-0.2563987420476319</v>
@@ -4210,7 +4186,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.1074855643618061</v>
+        <v>-0.1070736599933015</v>
       </c>
       <c r="D202" t="n">
         <v>2.171791676091245</v>
@@ -4229,7 +4205,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.5154533900051615</v>
+        <v>0.321287229381498</v>
       </c>
       <c r="E203" t="n">
         <v>0.6324591611860634</v>
@@ -4245,7 +4221,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2831411801107132</v>
+        <v>0.2398249317779181</v>
       </c>
       <c r="D204" t="n">
         <v>-1.183875044745131</v>
@@ -4264,7 +4240,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C205" t="n">
-        <v>0.7427078477018968</v>
+        <v>0.7427078477018995</v>
       </c>
       <c r="D205" t="n">
         <v>-0.07962419239024267</v>
@@ -4283,7 +4259,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5195073147707129</v>
+        <v>1.138177619064526</v>
       </c>
       <c r="D206" t="n">
         <v>0.1016233805034875</v>
@@ -4302,7 +4278,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4071788539342851</v>
+        <v>0.4046726934202741</v>
       </c>
       <c r="D207" t="n">
         <v>0.511017744646708</v>
@@ -4321,7 +4297,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2381899044259951</v>
+        <v>0.2374233301342747</v>
       </c>
       <c r="D208" t="n">
         <v>7.974191168123757</v>
@@ -4340,7 +4316,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1135224224091581</v>
+        <v>0.1135224224091599</v>
       </c>
       <c r="D209" t="n">
         <v>0.08046057184855598</v>
@@ -4359,7 +4335,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C210" t="n">
-        <v>0.3202382234924979</v>
+        <v>0.7895401505456708</v>
       </c>
       <c r="D210" t="n">
         <v>2.528461465848935</v>
@@ -4397,7 +4373,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.1236424055707412</v>
+        <v>-0.1883538625836123</v>
       </c>
       <c r="D212" t="n">
         <v>-0.9590317978501464</v>
@@ -4416,7 +4392,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C213" t="n">
-        <v>0.405372357606071</v>
+        <v>0.4058794382203678</v>
       </c>
       <c r="D213" t="n">
         <v>0.6892278448276392</v>
@@ -4451,7 +4427,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2762511310085651</v>
+        <v>0.2551718463293995</v>
       </c>
       <c r="D215" t="n">
         <v>-1.185249475665633</v>
@@ -4470,7 +4446,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3184887757255292</v>
+        <v>0.3184887757255336</v>
       </c>
       <c r="D216" t="n">
         <v>10.73889224615971</v>
@@ -4489,7 +4465,7 @@
         <v>0.5753123306874368</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3968796511142958</v>
+        <v>-0.2880627557143083</v>
       </c>
       <c r="D217" t="n">
         <v>0.3324766609452227</v>
@@ -4508,7 +4484,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.2713237705509605</v>
+        <v>-0.2637533045194532</v>
       </c>
       <c r="D218" t="n">
         <v>1.48903583763023</v>
@@ -4527,7 +4503,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C219" t="n">
-        <v>0.4774657750453392</v>
+        <v>-0.8361723780491778</v>
       </c>
       <c r="D219" t="n">
         <v>0.09939177551379941</v>
@@ -4546,7 +4522,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C220" t="n">
-        <v>0.04215079033110074</v>
+        <v>0.07158288506062174</v>
       </c>
       <c r="D220" t="n">
         <v>1.960642997370769</v>
@@ -4565,7 +4541,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.005186446715335274</v>
+        <v>-0.005186446715335917</v>
       </c>
       <c r="D221" t="n">
         <v>0.709886161780646</v>
@@ -4584,7 +4560,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C222" t="n">
-        <v>0.220093883616839</v>
+        <v>0.2200938836168355</v>
       </c>
       <c r="E222" t="n">
         <v>0.20211118626859</v>
@@ -4600,7 +4576,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.7086079932057247</v>
+        <v>-0.4265809545827121</v>
       </c>
       <c r="D223" t="n">
         <v>0.02350291609177624</v>
@@ -4635,7 +4611,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C225" t="n">
-        <v>0.02557056976710178</v>
+        <v>-2.026786673155482</v>
       </c>
       <c r="D225" t="n">
         <v>0.461639150809359</v>
@@ -4654,7 +4630,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2396441441997711</v>
+        <v>0.2393925479123947</v>
       </c>
       <c r="D226" t="n">
         <v>0.08008942860100339</v>
@@ -4673,7 +4649,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C227" t="n">
-        <v>-2.093253690238272</v>
+        <v>0.04612917072919832</v>
       </c>
       <c r="D227" t="n">
         <v>-0.02766361731348317</v>
@@ -4692,7 +4668,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.3122447653107947</v>
+        <v>-0.3147515667438925</v>
       </c>
       <c r="D228" t="n">
         <v>0.617599028058235</v>
@@ -4711,7 +4687,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1571445526906476</v>
+        <v>0.157144552690654</v>
       </c>
       <c r="D229" t="n">
         <v>0.1001202411228327</v>
@@ -4730,7 +4706,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C230" t="n">
-        <v>0.4580132662674768</v>
+        <v>0.4570053049039782</v>
       </c>
       <c r="D230" t="n">
         <v>3.352094493299849</v>
@@ -4749,7 +4725,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2561469408771974</v>
+        <v>0.2561469408771952</v>
       </c>
       <c r="D231" t="n">
         <v>-0.1456247789124773</v>
@@ -4768,7 +4744,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C232" t="n">
-        <v>0.185857386534915</v>
+        <v>0.1888555364472199</v>
       </c>
       <c r="E232" t="n">
         <v>0.197936008493529</v>
@@ -4784,7 +4760,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2003921859364135</v>
+        <v>0.277382663895621</v>
       </c>
       <c r="E233" t="n">
         <v>0.2781548284033257</v>
@@ -4800,7 +4776,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C234" t="n">
-        <v>1.253705370495425</v>
+        <v>1.233053594425537</v>
       </c>
       <c r="D234" t="n">
         <v>0.333412756579118</v>
@@ -4819,7 +4795,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C235" t="n">
-        <v>0.4663498928802202</v>
+        <v>0.4674067968855897</v>
       </c>
       <c r="D235" t="n">
         <v>11.87283923326792</v>
@@ -4838,7 +4814,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4799745113057915</v>
+        <v>0.3575387691387568</v>
       </c>
       <c r="D236" t="n">
         <v>7.807457337288381</v>
@@ -4857,7 +4833,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C237" t="n">
-        <v>0.3327683854730816</v>
+        <v>0.3311638308342884</v>
       </c>
       <c r="D237" t="n">
         <v>0.5997221962603435</v>
@@ -4892,7 +4868,7 @@
         <v>-0.5994620704162712</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.5514490138787201</v>
+        <v>-0.5514490138787204</v>
       </c>
       <c r="D239" t="n">
         <v>-0.6902776507604159</v>
@@ -4911,7 +4887,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.08127362600243651</v>
+        <v>-0.2255388479825459</v>
       </c>
       <c r="E240" t="n">
         <v>0.1171083515614142</v>
@@ -4927,7 +4903,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1318994047627413</v>
+        <v>0.1318994047627443</v>
       </c>
       <c r="E241" t="n">
         <v>0.1446815479291317</v>
@@ -4943,7 +4919,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.1608370608458722</v>
+        <v>-0.171012428504018</v>
       </c>
       <c r="D242" t="n">
         <v>-0.1298512224970686</v>
@@ -4962,7 +4938,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C243" t="n">
-        <v>0.129727604535459</v>
+        <v>0.129727604535457</v>
       </c>
       <c r="D243" t="n">
         <v>0.6222843800161898</v>
@@ -4981,7 +4957,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C244" t="n">
-        <v>-1.488335321466753</v>
+        <v>0.428583500033856</v>
       </c>
       <c r="D244" t="n">
         <v>8.430415231733988</v>
@@ -5000,7 +4976,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C245" t="n">
-        <v>0.374172804039214</v>
+        <v>0.3684442529760269</v>
       </c>
       <c r="D245" t="n">
         <v>0.9344102965918342</v>
@@ -5019,7 +4995,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C246" t="n">
-        <v>0.22268558205849</v>
+        <v>-1.974692067072918</v>
       </c>
       <c r="D246" t="n">
         <v>-2.18358465973961</v>
@@ -5038,7 +5014,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C247" t="n">
-        <v>-2.212657015857677</v>
+        <v>-2.22069497261126</v>
       </c>
       <c r="D247" t="n">
         <v>-2.338494393118673</v>
@@ -5057,7 +5033,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5916825450032275</v>
+        <v>0.07761592645992045</v>
       </c>
       <c r="D248" t="n">
         <v>0.004639095437439458</v>
@@ -5076,7 +5052,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1982093239884188</v>
+        <v>-0.06949793946649251</v>
       </c>
       <c r="E249" t="n">
         <v>0.3541120205166713</v>
@@ -5092,7 +5068,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2132843748909546</v>
+        <v>0.1815274140808017</v>
       </c>
       <c r="D250" t="n">
         <v>2.208692703603515</v>
@@ -5111,7 +5087,7 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C251" t="n">
-        <v>0.3406392371757528</v>
+        <v>0.3406392371757488</v>
       </c>
       <c r="D251" t="n">
         <v>0.1450880408263054</v>
@@ -5130,7 +5106,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C252" t="n">
-        <v>0.3685850855714642</v>
+        <v>0.3814368389701869</v>
       </c>
       <c r="D252" t="n">
         <v>8.362343602647059</v>
@@ -5149,14 +5125,11 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4534272438748776</v>
+        <v>0.274773543532675</v>
       </c>
       <c r="D253" t="n">
         <v>-9.74617685880253</v>
       </c>
-      <c r="E253" t="n">
-        <v>0.4698982119165625</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5168,7 +5141,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1897570584748555</v>
+        <v>0.1495273543650728</v>
       </c>
       <c r="D254" t="n">
         <v>-0.3995362686921323</v>
@@ -5187,7 +5160,7 @@
         <v>0.5459683691052925</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3417256846556463</v>
+        <v>0.3332097821853385</v>
       </c>
       <c r="D255" t="n">
         <v>-7.35228571684596</v>
@@ -5206,7 +5179,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.03942547989057742</v>
+        <v>-0.03942547989057808</v>
       </c>
       <c r="D256" t="n">
         <v>10.70827320683773</v>
@@ -5225,7 +5198,7 @@
         <v>0.5655971758542251</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6644821007109165</v>
+        <v>0.7234481813199231</v>
       </c>
       <c r="D257" t="n">
         <v>-0.5272983812317514</v>
@@ -5244,7 +5217,7 @@
         <v>0.5753123306874368</v>
       </c>
       <c r="C258" t="n">
-        <v>0.02765383634042709</v>
+        <v>-0.0499269397152128</v>
       </c>
       <c r="D258" t="n">
         <v>-9.246587673540649</v>
@@ -5263,7 +5236,7 @@
         <v>0.4646682670034443</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1667523048996327</v>
+        <v>0.3337399755153407</v>
       </c>
       <c r="E259" t="n">
         <v>0.7495363380964706</v>
@@ -5279,7 +5252,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2189458583298881</v>
+        <v>0.2978220646884679</v>
       </c>
       <c r="D260" t="n">
         <v>1.769452862759296</v>
@@ -5298,7 +5271,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C261" t="n">
-        <v>0.2391823503106053</v>
+        <v>0.225098474725911</v>
       </c>
       <c r="D261" t="n">
         <v>0.231156745341946</v>
@@ -5317,7 +5290,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C262" t="n">
-        <v>0.220524334628951</v>
+        <v>0.220524334628956</v>
       </c>
       <c r="D262" t="n">
         <v>0.1250386568010709</v>
@@ -5336,7 +5309,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1582149223783129</v>
+        <v>0.1568195909742851</v>
       </c>
       <c r="D263" t="n">
         <v>0.09665358593911184</v>
@@ -5355,7 +5328,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1645050829023195</v>
+        <v>0.1645050829023149</v>
       </c>
       <c r="D264" t="n">
         <v>11.14346179343252</v>
@@ -5374,7 +5347,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1851738285112606</v>
+        <v>0.1851738285112564</v>
       </c>
       <c r="D265" t="n">
         <v>0.3100842826490571</v>
@@ -5393,7 +5366,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2351999648532899</v>
+        <v>0.2159403278899269</v>
       </c>
       <c r="D266" t="n">
         <v>1.36746733292364</v>
@@ -5412,7 +5385,7 @@
         <v>-0.5353317329965558</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.01258807520770549</v>
+        <v>-0.1713581307144926</v>
       </c>
       <c r="E267" t="n">
         <v>-0.2480533083736663</v>
@@ -5428,7 +5401,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C268" t="n">
-        <v>0.5890116053743011</v>
+        <v>0.5867635059371185</v>
       </c>
       <c r="D268" t="n">
         <v>0.8026995593802206</v>
@@ -5447,7 +5420,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C269" t="n">
-        <v>0.5126980997359027</v>
+        <v>0.1063183765360789</v>
       </c>
       <c r="D269" t="n">
         <v>0.3009394376633502</v>
@@ -5466,7 +5439,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C270" t="n">
-        <v>0.113423029908544</v>
+        <v>0.1897327040257243</v>
       </c>
       <c r="E270" t="n">
         <v>0.1157069175236496</v>
@@ -5482,7 +5455,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C271" t="n">
-        <v>0.3990786018720328</v>
+        <v>0.7789295400401535</v>
       </c>
       <c r="D271" t="n">
         <v>-0.1402572897529669</v>
@@ -5501,7 +5474,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C272" t="n">
-        <v>0.433138995584032</v>
+        <v>0.4331389955840356</v>
       </c>
       <c r="D272" t="n">
         <v>0.507645410638723</v>
@@ -5519,9 +5492,6 @@
       <c r="B273" t="n">
         <v>0.1634987322828796</v>
       </c>
-      <c r="C273" t="n">
-        <v>0.1440362250093861</v>
-      </c>
       <c r="D273" t="n">
         <v>-0.2366452892739683</v>
       </c>
@@ -5558,7 +5528,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3863162849424009</v>
+        <v>0.381298665426493</v>
       </c>
       <c r="E275" t="n">
         <v>0.4454084148553132</v>
@@ -5574,7 +5544,7 @@
         <v>0.632268215499513</v>
       </c>
       <c r="C276" t="n">
-        <v>0.6326441994163917</v>
+        <v>0.6326441994163884</v>
       </c>
       <c r="D276" t="n">
         <v>0.6375107574635349</v>
@@ -5593,7 +5563,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1425912443829296</v>
+        <v>0.1376682512306608</v>
       </c>
       <c r="D277" t="n">
         <v>-3.438664530591524</v>
@@ -5628,7 +5598,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C279" t="n">
-        <v>0.08920517880746355</v>
+        <v>0.08920517880746445</v>
       </c>
       <c r="D279" t="n">
         <v>0.2347467243891526</v>
@@ -5647,7 +5617,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C280" t="n">
-        <v>0.315922840367157</v>
+        <v>0.3159228403671516</v>
       </c>
       <c r="D280" t="n">
         <v>0.5308367706784926</v>
@@ -5666,7 +5636,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2570951478021802</v>
+        <v>0.2570951478021851</v>
       </c>
       <c r="D281" t="n">
         <v>0.3302022844245535</v>
@@ -5685,7 +5655,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2062391865100702</v>
+        <v>0.2058158977587199</v>
       </c>
       <c r="D282" t="n">
         <v>0.3233099926680999</v>
@@ -5704,7 +5674,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C283" t="n">
-        <v>0.309483845723511</v>
+        <v>0.3094838457235076</v>
       </c>
       <c r="D283" t="n">
         <v>-11.27483364465354</v>
@@ -5723,7 +5693,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2742683010690914</v>
+        <v>0.2755536800946708</v>
       </c>
       <c r="D284" t="n">
         <v>0.1417078685584361</v>
@@ -5742,7 +5712,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C285" t="n">
-        <v>0.4033161480790434</v>
+        <v>0.3257494626926347</v>
       </c>
       <c r="D285" t="n">
         <v>-10.2687152443305</v>
@@ -5761,7 +5731,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C286" t="n">
-        <v>0.5784862689622519</v>
+        <v>0.496146242623814</v>
       </c>
       <c r="D286" t="n">
         <v>11.61762629045685</v>
@@ -5780,7 +5750,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C287" t="n">
-        <v>0.508570696397763</v>
+        <v>0.1638426558903698</v>
       </c>
       <c r="D287" t="n">
         <v>0.5496970993948962</v>
@@ -5799,7 +5769,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.4260192495683841</v>
+        <v>-0.6759487632559722</v>
       </c>
       <c r="D288" t="n">
         <v>0.05977201300420932</v>
@@ -5834,7 +5804,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C290" t="n">
-        <v>-1.209492157192017</v>
+        <v>-2.119286714305496</v>
       </c>
       <c r="D290" t="n">
         <v>2.138069184286313</v>
@@ -5853,7 +5823,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.01707785980126365</v>
+        <v>-0.04617309047057505</v>
       </c>
       <c r="D291" t="n">
         <v>0.2371242826085116</v>
@@ -5872,7 +5842,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C292" t="n">
-        <v>0.3866063624342963</v>
+        <v>0.4686225821806848</v>
       </c>
       <c r="D292" t="n">
         <v>-6.063446481853187</v>
@@ -5891,7 +5861,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C293" t="n">
-        <v>0.4353766805586213</v>
+        <v>0.4353766805586247</v>
       </c>
       <c r="D293" t="n">
         <v>0.4695005150997068</v>
@@ -5910,7 +5880,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C294" t="n">
-        <v>0.2071404113355492</v>
+        <v>0.2135402437036256</v>
       </c>
       <c r="D294" t="n">
         <v>0.9578739171355505</v>
@@ -5929,7 +5899,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.1739295261457268</v>
+        <v>-0.3643966046617217</v>
       </c>
       <c r="D295" t="n">
         <v>0.08287925755499498</v>
@@ -5947,6 +5917,9 @@
       <c r="B296" t="n">
         <v>0.6690267655096307</v>
       </c>
+      <c r="C296" t="n">
+        <v>0.5106061611350475</v>
+      </c>
       <c r="D296" t="n">
         <v>0.6014322854975785</v>
       </c>
@@ -5963,9 +5936,6 @@
       <c r="B297" t="n">
         <v>0.2141248053528473</v>
       </c>
-      <c r="C297" t="n">
-        <v>0.5106061611350462</v>
-      </c>
       <c r="D297" t="n">
         <v>-2.508442288484729</v>
       </c>
@@ -5983,7 +5953,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C298" t="n">
-        <v>0.2763528906975826</v>
+        <v>0.2763528906975837</v>
       </c>
       <c r="D298" t="n">
         <v>-0.009661841603237496</v>
@@ -6002,14 +5972,11 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1215802222156275</v>
+        <v>0.3886874313549767</v>
       </c>
       <c r="D299" t="n">
         <v>11.92581499013019</v>
       </c>
-      <c r="E299" t="n">
-        <v>0.1059245427228284</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6021,7 +5988,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C300" t="n">
-        <v>0.0404576048844545</v>
+        <v>0.040457604884457</v>
       </c>
       <c r="D300" t="n">
         <v>-0.2493444378181402</v>
@@ -6059,7 +6026,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2026556465631434</v>
+        <v>0.1477734875899123</v>
       </c>
       <c r="D302" t="n">
         <v>0.478267787671677</v>
@@ -6078,7 +6045,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C303" t="n">
-        <v>0.4666658092003281</v>
+        <v>-0.05190019481880285</v>
       </c>
       <c r="D303" t="n">
         <v>-2.675026258134344</v>
@@ -6097,7 +6064,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6843229003591417</v>
+        <v>0.6843229003591427</v>
       </c>
       <c r="D304" t="n">
         <v>0.05034456688162341</v>
@@ -6116,7 +6083,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1530518404028493</v>
+        <v>0.2106806277331759</v>
       </c>
       <c r="D305" t="n">
         <v>2.068174896210257</v>
@@ -6135,7 +6102,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C306" t="n">
-        <v>0.03569318565201983</v>
+        <v>0.06242032551950185</v>
       </c>
       <c r="D306" t="n">
         <v>0.2643599162643126</v>
@@ -6154,7 +6121,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.1725386165513589</v>
+        <v>-0.4891176096794443</v>
       </c>
       <c r="D307" t="n">
         <v>-0.3981766380160404</v>
@@ -6173,7 +6140,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2919451473185735</v>
+        <v>0.2700544219356933</v>
       </c>
       <c r="D308" t="n">
         <v>-0.6528030594542374</v>
@@ -6192,7 +6159,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1012952819839873</v>
+        <v>0.1023321627088753</v>
       </c>
       <c r="D309" t="n">
         <v>0.2253654370768741</v>
@@ -6230,7 +6197,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.1517151016203809</v>
+        <v>-0.1517151016203811</v>
       </c>
       <c r="D311" t="n">
         <v>-0.1686125428878704</v>
@@ -6249,7 +6216,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C312" t="n">
-        <v>0.3027899752000514</v>
+        <v>0.3027899752000472</v>
       </c>
       <c r="D312" t="n">
         <v>0.2656915637690712</v>
@@ -6268,7 +6235,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.006949570923892616</v>
+        <v>-0.008117614228777029</v>
       </c>
       <c r="D313" t="n">
         <v>-0.1497505992857915</v>
@@ -6287,7 +6254,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3333119904018562</v>
+        <v>0.3333119904018514</v>
       </c>
       <c r="D314" t="n">
         <v>0.4644757560600301</v>
@@ -6306,7 +6273,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2247189256649814</v>
+        <v>0.2247189256649866</v>
       </c>
       <c r="D315" t="n">
         <v>-0.0009547310449040152</v>
@@ -6325,7 +6292,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1599866848457341</v>
+        <v>0.1014803411423016</v>
       </c>
       <c r="D316" t="n">
         <v>-0.1389912999654712</v>
@@ -6344,7 +6311,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1716493947674617</v>
+        <v>-0.2636998054475239</v>
       </c>
       <c r="D317" t="n">
         <v>-2.510896657211204</v>
@@ -6363,7 +6330,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C318" t="n">
-        <v>0.6206790288052837</v>
+        <v>0.768431207938865</v>
       </c>
       <c r="D318" t="n">
         <v>0.3100139221956995</v>
@@ -6382,7 +6349,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7270613236929001</v>
+        <v>0.7297146034240912</v>
       </c>
       <c r="D319" t="n">
         <v>0.4953074512175727</v>
@@ -6401,7 +6368,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C320" t="n">
-        <v>0.3068976848774833</v>
+        <v>0.3066549499495338</v>
       </c>
       <c r="D320" t="n">
         <v>-12.76062171793541</v>
@@ -6420,7 +6387,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.8673909607288437</v>
+        <v>-0.867117852343571</v>
       </c>
       <c r="D321" t="n">
         <v>0.2468469215855422</v>
@@ -6439,7 +6406,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C322" t="n">
-        <v>0.2806198551370765</v>
+        <v>0.2867535063846434</v>
       </c>
       <c r="D322" t="n">
         <v>-0.1764013788876222</v>
@@ -6458,7 +6425,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2815540754884946</v>
+        <v>0.3113765782882368</v>
       </c>
       <c r="E323" t="n">
         <v>0.2723278361039921</v>
@@ -6474,7 +6441,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.001818141438979406</v>
+        <v>-0.009810409710928367</v>
       </c>
       <c r="D324" t="n">
         <v>0.01609221097315813</v>
@@ -6493,7 +6460,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C325" t="n">
-        <v>0.263199672463322</v>
+        <v>0.248058921993039</v>
       </c>
       <c r="D325" t="n">
         <v>0.06895907684142721</v>
@@ -6512,7 +6479,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0311027534399786</v>
+        <v>0.03110275343997672</v>
       </c>
       <c r="D326" t="n">
         <v>6.263794381680366</v>
@@ -6531,7 +6498,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C327" t="n">
-        <v>0.03700694573796647</v>
+        <v>0.0370069457379699</v>
       </c>
       <c r="D327" t="n">
         <v>0.5199478308842267</v>
@@ -6550,7 +6517,7 @@
         <v>-0.4739311883324124</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.6233108391700016</v>
+        <v>-0.5008088764139618</v>
       </c>
       <c r="D328" t="n">
         <v>-1.05748899538787</v>
@@ -6569,7 +6536,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C329" t="n">
-        <v>0.04466512580982541</v>
+        <v>0.04466512580982914</v>
       </c>
       <c r="D329" t="n">
         <v>0.01157793114253564</v>
@@ -6588,7 +6555,7 @@
         <v>-0.3400754415976217</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.2514776155018886</v>
+        <v>-0.2633970514816249</v>
       </c>
       <c r="D330" t="n">
         <v>-3.475791999583657</v>
@@ -6607,7 +6574,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C331" t="n">
-        <v>1.752164105757741</v>
+        <v>-3.220586913521603</v>
       </c>
       <c r="D331" t="n">
         <v>-11.24526553429862</v>
@@ -6626,7 +6593,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C332" t="n">
-        <v>0.2447692850263275</v>
+        <v>0.2447692850263294</v>
       </c>
       <c r="D332" t="n">
         <v>0.09880804279964199</v>
@@ -6645,7 +6612,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C333" t="n">
-        <v>0.4720910548372071</v>
+        <v>0.4720910548372034</v>
       </c>
       <c r="D333" t="n">
         <v>1.670733963176035</v>
@@ -6664,7 +6631,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C334" t="n">
-        <v>0.2952951733732938</v>
+        <v>0.2952951733732891</v>
       </c>
       <c r="D334" t="n">
         <v>0.3140035619495439</v>
@@ -6683,7 +6650,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C335" t="n">
-        <v>0.4824685408688497</v>
+        <v>0.4824685408688492</v>
       </c>
       <c r="D335" t="n">
         <v>-0.2209801657561198</v>
@@ -6702,7 +6669,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C336" t="n">
-        <v>0.2941746410878093</v>
+        <v>0.2941746410878139</v>
       </c>
       <c r="D336" t="n">
         <v>-0.1564837228996044</v>
@@ -6737,7 +6704,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.6157350892884085</v>
+        <v>-0.8445609158186351</v>
       </c>
       <c r="D338" t="n">
         <v>-0.3858041125957934</v>
@@ -6756,7 +6723,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1556094607085906</v>
+        <v>0.1550145349101088</v>
       </c>
       <c r="D339" t="n">
         <v>-1.764219069863856</v>
@@ -6775,7 +6742,7 @@
         <v>0.6780719051126377</v>
       </c>
       <c r="C340" t="n">
-        <v>0.6622077974283933</v>
+        <v>0.6622077974283951</v>
       </c>
       <c r="E340" t="n">
         <v>0.6969981158355412</v>
@@ -6791,7 +6758,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C341" t="n">
-        <v>0.2092294073373305</v>
+        <v>0.2385226884761752</v>
       </c>
       <c r="D341" t="n">
         <v>-2.730389905595422</v>
@@ -6810,7 +6777,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1713315732754037</v>
+        <v>0.1711270662170333</v>
       </c>
       <c r="D342" t="n">
         <v>-0.428973452661306</v>
@@ -6829,7 +6796,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C343" t="n">
-        <v>0.4354159527273604</v>
+        <v>0.4354159527273599</v>
       </c>
       <c r="D343" t="n">
         <v>-0.654775103247584</v>
@@ -6848,7 +6815,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2837318190498496</v>
+        <v>0.2348540875986227</v>
       </c>
       <c r="D344" t="n">
         <v>-0.4447464999942228</v>
@@ -6867,7 +6834,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C345" t="n">
-        <v>0.2217777357282422</v>
+        <v>0.1957692044886221</v>
       </c>
       <c r="D345" t="n">
         <v>-0.1918233526336802</v>
@@ -6886,7 +6853,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0520873411217106</v>
+        <v>0.05320134361093401</v>
       </c>
       <c r="D346" t="n">
         <v>0.1258356711964826</v>
@@ -6905,7 +6872,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1459605538766708</v>
+        <v>0.1459605538766664</v>
       </c>
       <c r="D347" t="n">
         <v>-0.2409484116049749</v>
@@ -6924,7 +6891,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C348" t="n">
-        <v>0.3535726321478551</v>
+        <v>0.3412522692695718</v>
       </c>
       <c r="D348" t="n">
         <v>10.89290443237222</v>
@@ -6943,7 +6910,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C349" t="n">
-        <v>0.2129278182593421</v>
+        <v>0.2116478876349021</v>
       </c>
       <c r="D349" t="n">
         <v>-8.896092655744649</v>
@@ -6962,7 +6929,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1813621305207197</v>
+        <v>0.07282555088836726</v>
       </c>
       <c r="D350" t="n">
         <v>0.4140576497576643</v>
@@ -6981,7 +6948,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.04847987524405465</v>
+        <v>-0.04864100720835706</v>
       </c>
       <c r="D351" t="n">
         <v>0.1399356051040316</v>
@@ -7000,7 +6967,7 @@
         <v>0.5849625007211562</v>
       </c>
       <c r="C352" t="n">
-        <v>0.4555649887131648</v>
+        <v>0.5000843543114513</v>
       </c>
       <c r="D352" t="n">
         <v>9.725949556337756</v>
@@ -7019,7 +6986,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.1326094723950681</v>
+        <v>-0.1397111578670271</v>
       </c>
       <c r="D353" t="n">
         <v>0.01625117584476891</v>
@@ -7038,7 +7005,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C354" t="n">
-        <v>1.078202594737637</v>
+        <v>0.8900718714476452</v>
       </c>
       <c r="D354" t="n">
         <v>-0.1459462596081031</v>
@@ -7057,14 +7024,11 @@
         <v>0.6135316529179271</v>
       </c>
       <c r="C355" t="n">
-        <v>0.8312781275018437</v>
+        <v>0.4306043613974478</v>
       </c>
       <c r="D355" t="n">
         <v>0.5709314520270538</v>
       </c>
-      <c r="E355" t="n">
-        <v>0.8147127588702402</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -7076,7 +7040,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.5599291902702127</v>
+        <v>-0.1399029356797118</v>
       </c>
       <c r="D356" t="n">
         <v>-10.5402417761029</v>
@@ -7095,7 +7059,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C357" t="n">
-        <v>0.7882892333225672</v>
+        <v>0.762209140280236</v>
       </c>
       <c r="D357" t="n">
         <v>-0.1827780323090668</v>
@@ -7114,7 +7078,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C358" t="n">
-        <v>0.4609128251748928</v>
+        <v>0.4609128251748915</v>
       </c>
       <c r="D358" t="n">
         <v>1.10722096240499</v>
@@ -7149,7 +7113,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C360" t="n">
-        <v>0.02547466855939456</v>
+        <v>0.02398211858015531</v>
       </c>
       <c r="D360" t="n">
         <v>-0.0517190573028683</v>
@@ -7184,7 +7148,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.2938342529593007</v>
+        <v>-0.2938342529593013</v>
       </c>
       <c r="D362" t="n">
         <v>-0.2480499883385291</v>
@@ -7203,7 +7167,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1198323972118052</v>
+        <v>0.1198323972117995</v>
       </c>
       <c r="D363" t="n">
         <v>0.1348851147048447</v>
@@ -7254,7 +7218,7 @@
         <v>0.6870606883398924</v>
       </c>
       <c r="C366" t="n">
-        <v>0.06179755106683894</v>
+        <v>0.3010805767170386</v>
       </c>
       <c r="E366" t="n">
         <v>0.5931225223847758</v>
@@ -7270,7 +7234,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C367" t="n">
-        <v>0.184453905833922</v>
+        <v>0.1848939978727908</v>
       </c>
       <c r="D367" t="n">
         <v>14.27763352857216</v>
@@ -7289,7 +7253,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C368" t="n">
-        <v>0.5349042781051178</v>
+        <v>0.5349042781051211</v>
       </c>
       <c r="D368" t="n">
         <v>0.3775437266437597</v>
@@ -7308,7 +7272,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C369" t="n">
-        <v>0.4883131024490295</v>
+        <v>0.4078759597739385</v>
       </c>
       <c r="D369" t="n">
         <v>1.410247805988328</v>
@@ -7327,7 +7291,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1550475419083616</v>
+        <v>0.1519021739220168</v>
       </c>
       <c r="D370" t="n">
         <v>0.1471229809140175</v>
@@ -7346,7 +7310,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C371" t="n">
-        <v>0.708280588214676</v>
+        <v>0.6823165693789793</v>
       </c>
       <c r="E371" t="n">
         <v>0.2783293399660174</v>
@@ -7362,7 +7326,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C372" t="n">
-        <v>0.202351541732552</v>
+        <v>0.2023515417325562</v>
       </c>
       <c r="D372" t="n">
         <v>0.4919204909087</v>
@@ -7381,7 +7345,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.7292947109264724</v>
+        <v>-0.8861792984230574</v>
       </c>
       <c r="D373" t="n">
         <v>0.4580912057616286</v>
@@ -7432,7 +7396,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C376" t="n">
-        <v>0.03992898880169606</v>
+        <v>0.03992898880168982</v>
       </c>
       <c r="D376" t="n">
         <v>-0.381434879762187</v>
@@ -7451,7 +7415,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C377" t="n">
-        <v>0.525927281789629</v>
+        <v>0.5640034069065728</v>
       </c>
       <c r="D377" t="n">
         <v>0.3987346756470654</v>
@@ -7470,7 +7434,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1939541419969761</v>
+        <v>0.1939541419969708</v>
       </c>
       <c r="D378" t="n">
         <v>0.1329356383094459</v>
@@ -7508,7 +7472,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2494743909276276</v>
+        <v>0.2512552463031185</v>
       </c>
       <c r="D380" t="n">
         <v>0.7404781923438943</v>
@@ -7527,7 +7491,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C381" t="n">
-        <v>0.2238358382061168</v>
+        <v>0.224413609555807</v>
       </c>
       <c r="D381" t="n">
         <v>0.3437839861116</v>
@@ -7546,7 +7510,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C382" t="n">
-        <v>0.06436446725601359</v>
+        <v>0.0643731715720447</v>
       </c>
       <c r="D382" t="n">
         <v>0.1476207613889034</v>
@@ -7565,7 +7529,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C383" t="n">
-        <v>0.4384124506101406</v>
+        <v>0.4387432301692894</v>
       </c>
       <c r="D383" t="n">
         <v>0.3014422475826949</v>
@@ -7584,7 +7548,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C384" t="n">
-        <v>0.06349674027388211</v>
+        <v>0.06951888322054309</v>
       </c>
       <c r="D384" t="n">
         <v>0.111277585634085</v>
@@ -7603,7 +7567,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C385" t="n">
-        <v>0.4049726123504622</v>
+        <v>0.4049726123504613</v>
       </c>
       <c r="D385" t="n">
         <v>0.3884897015952351</v>
@@ -7622,7 +7586,7 @@
         <v>0.5459683691052925</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.5324142937057484</v>
+        <v>-0.529429862733236</v>
       </c>
       <c r="D386" t="n">
         <v>0.8309858433734048</v>
@@ -7641,7 +7605,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1553661772582798</v>
+        <v>0.1553661772582792</v>
       </c>
       <c r="E387" t="n">
         <v>0.2023073122677599</v>
@@ -7657,7 +7621,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.2585825025038102</v>
+        <v>-0.2585825025038097</v>
       </c>
       <c r="D388" t="n">
         <v>0.1549723488022276</v>
@@ -7676,7 +7640,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C389" t="n">
-        <v>0.3163780052872586</v>
+        <v>0.3162144436929694</v>
       </c>
       <c r="D389" t="n">
         <v>-0.006255069347247286</v>
@@ -7695,7 +7659,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C390" t="n">
-        <v>0.1632862008987071</v>
+        <v>0.1632862008987045</v>
       </c>
       <c r="E390" t="n">
         <v>0.2061821873455753</v>
@@ -7711,7 +7675,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C391" t="n">
-        <v>0.1605044168038761</v>
+        <v>0.1605044168038824</v>
       </c>
       <c r="D391" t="n">
         <v>-0.05404794759758659</v>
@@ -7730,7 +7694,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C392" t="n">
-        <v>0.2484591233828285</v>
+        <v>1.383556882034675</v>
       </c>
       <c r="D392" t="n">
         <v>0.1352036504718489</v>
@@ -7749,7 +7713,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C393" t="n">
-        <v>0.3718149329916029</v>
+        <v>-0.5415574475828211</v>
       </c>
       <c r="D393" t="n">
         <v>11.29571021027458</v>
@@ -7787,14 +7751,11 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2104646798470975</v>
+        <v>2.024274464832798</v>
       </c>
       <c r="D395" t="n">
         <v>-1.017924872188246</v>
       </c>
-      <c r="E395" t="n">
-        <v>0.1818391374567079</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -7822,7 +7783,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C397" t="n">
-        <v>-0.2628877938769596</v>
+        <v>0.1681481837234809</v>
       </c>
       <c r="D397" t="n">
         <v>0.1508717912062557</v>
@@ -7857,7 +7818,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C399" t="n">
-        <v>0.3662400835509378</v>
+        <v>0.8685714672770768</v>
       </c>
       <c r="D399" t="n">
         <v>-0.1048532099216621</v>
@@ -7876,7 +7837,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C400" t="n">
-        <v>-0.3689434917673922</v>
+        <v>-0.3561519636520786</v>
       </c>
       <c r="D400" t="n">
         <v>0.2954523186270989</v>
@@ -7930,7 +7891,7 @@
         <v>-0.5777669993169522</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.3886451496617552</v>
+        <v>-0.2706868629384193</v>
       </c>
       <c r="D403" t="n">
         <v>-0.172619610656944</v>
@@ -7949,7 +7910,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C404" t="n">
-        <v>-0.09899500926730585</v>
+        <v>-0.148380010693537</v>
       </c>
       <c r="D404" t="n">
         <v>1.777127033367228</v>
@@ -7968,7 +7929,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C405" t="n">
-        <v>-0.5254887241896276</v>
+        <v>-0.5249882507819089</v>
       </c>
       <c r="D405" t="n">
         <v>0.3550017477148936</v>
@@ -7987,7 +7948,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C406" t="n">
-        <v>0.1510059671599507</v>
+        <v>0.1499494346770704</v>
       </c>
       <c r="D406" t="n">
         <v>0.2046233060758587</v>
@@ -8006,7 +7967,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C407" t="n">
-        <v>0.1383595532692483</v>
+        <v>0.1383595532692526</v>
       </c>
       <c r="D407" t="n">
         <v>0.2714157704089941</v>
@@ -8025,7 +7986,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C408" t="n">
-        <v>-0.03042121047076269</v>
+        <v>-0.0240737751701229</v>
       </c>
       <c r="D408" t="n">
         <v>11.48402390375804</v>
@@ -8044,7 +8005,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C409" t="n">
-        <v>0.3054014800241869</v>
+        <v>0.3055961888497584</v>
       </c>
       <c r="D409" t="n">
         <v>0.3911740425362303</v>
@@ -8063,7 +8024,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C410" t="n">
-        <v>0.1561587229363612</v>
+        <v>0.1561587229363621</v>
       </c>
       <c r="D410" t="n">
         <v>0.121578347401139</v>
@@ -8082,7 +8043,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C411" t="n">
-        <v>0.4365267451765056</v>
+        <v>0.4422911086122799</v>
       </c>
       <c r="D411" t="n">
         <v>0.3220078604103452</v>
@@ -8101,7 +8062,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C412" t="n">
-        <v>-1.761240081024146</v>
+        <v>-1.724930793523362</v>
       </c>
       <c r="D412" t="n">
         <v>0.04426258481111203</v>
@@ -8136,7 +8097,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C414" t="n">
-        <v>0.1914214756103658</v>
+        <v>0.1914214756103655</v>
       </c>
       <c r="D414" t="n">
         <v>0.1403126554981207</v>
@@ -8155,14 +8116,11 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7022596128394628</v>
+        <v>0.6981537181303989</v>
       </c>
       <c r="D415" t="n">
         <v>0.1588342363121001</v>
       </c>
-      <c r="E415" t="n">
-        <v>-1.051660044647106</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -8174,7 +8132,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C416" t="n">
-        <v>0.01761067909907497</v>
+        <v>0.005263779339349292</v>
       </c>
       <c r="D416" t="n">
         <v>0.3955128531958276</v>
@@ -8193,7 +8151,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C417" t="n">
-        <v>0.4756936933951811</v>
+        <v>0.4756936933951805</v>
       </c>
       <c r="D417" t="n">
         <v>-1.220239356387327</v>
@@ -8212,7 +8170,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C418" t="n">
-        <v>0.1486455751027348</v>
+        <v>0.1512111271260072</v>
       </c>
       <c r="D418" t="n">
         <v>-11.1507901669727</v>
@@ -8231,7 +8189,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1255538474381766</v>
+        <v>0.1255538474381737</v>
       </c>
       <c r="D419" t="n">
         <v>-0.1142385588316783</v>
@@ -8250,7 +8208,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2000746908986226</v>
+        <v>0.2010584832842711</v>
       </c>
       <c r="D420" t="n">
         <v>0.1462635003399163</v>
@@ -8285,7 +8243,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C422" t="n">
-        <v>-0.01349136416049983</v>
+        <v>-0.01830911164000806</v>
       </c>
       <c r="D422" t="n">
         <v>1.531873003172777</v>
@@ -8304,7 +8262,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C423" t="n">
-        <v>0.2399280622983208</v>
+        <v>0.2462693357737892</v>
       </c>
       <c r="D423" t="n">
         <v>0.5117198073890175</v>
@@ -8323,7 +8281,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C424" t="n">
-        <v>0.3680097455474909</v>
+        <v>-0.01617527554872429</v>
       </c>
       <c r="D424" t="n">
         <v>-0.635087607050691</v>
@@ -8342,7 +8300,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C425" t="n">
-        <v>-0.03361692008719896</v>
+        <v>-0.0353288869307581</v>
       </c>
       <c r="D425" t="n">
         <v>0.963584167328553</v>
@@ -8361,7 +8319,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C426" t="n">
-        <v>0.2613388060420564</v>
+        <v>0.2613388060420612</v>
       </c>
       <c r="D426" t="n">
         <v>-13.65045449678321</v>
@@ -8380,7 +8338,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C427" t="n">
-        <v>0.3868971620456595</v>
+        <v>0.3868971620456563</v>
       </c>
       <c r="D427" t="n">
         <v>1.442538652913985</v>
@@ -8401,9 +8359,6 @@
       <c r="D428" t="n">
         <v>0.3561401509129325</v>
       </c>
-      <c r="E428" t="n">
-        <v>0.003477053530098861</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -8415,7 +8370,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C429" t="n">
-        <v>0.3213675054272844</v>
+        <v>0.3197025369321753</v>
       </c>
       <c r="D429" t="n">
         <v>-7.420405231611581</v>
@@ -8434,7 +8389,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C430" t="n">
-        <v>-0.08267156943197984</v>
+        <v>-0.08294085455471922</v>
       </c>
       <c r="D430" t="n">
         <v>-0.0684989858294094</v>
@@ -8453,7 +8408,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C431" t="n">
-        <v>0.2868035097331502</v>
+        <v>0.280605992636361</v>
       </c>
       <c r="D431" t="n">
         <v>0.2677405750806915</v>
@@ -8472,7 +8427,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C432" t="n">
-        <v>0.2038129306423017</v>
+        <v>0.2062531548041813</v>
       </c>
       <c r="D432" t="n">
         <v>0.4899780615760303</v>
@@ -8491,7 +8446,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C433" t="n">
-        <v>0.2495351707274206</v>
+        <v>0.2495351707274198</v>
       </c>
       <c r="D433" t="n">
         <v>0.2067280431279302</v>
@@ -8510,7 +8465,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C434" t="n">
-        <v>0.2094883075358584</v>
+        <v>0.2094883075358525</v>
       </c>
       <c r="D434" t="n">
         <v>-0.4811705135818198</v>
@@ -8529,7 +8484,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C435" t="n">
-        <v>0.2306052022668994</v>
+        <v>0.2296777968249878</v>
       </c>
       <c r="E435" t="n">
         <v>0.2430440235209192</v>
@@ -8545,7 +8500,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C436" t="n">
-        <v>0.1542771221784067</v>
+        <v>0.1550317355898579</v>
       </c>
       <c r="D436" t="n">
         <v>2.278942990594067</v>
@@ -8564,7 +8519,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C437" t="n">
-        <v>0.08398598003831513</v>
+        <v>0.01683916394182585</v>
       </c>
       <c r="D437" t="n">
         <v>-0.01584961241955993</v>
@@ -8583,7 +8538,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C438" t="n">
-        <v>-0.4250454988698413</v>
+        <v>0.6836619747234285</v>
       </c>
       <c r="D438" t="n">
         <v>5.701625755150515</v>
@@ -8602,7 +8557,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C439" t="n">
-        <v>0.2195630518457733</v>
+        <v>0.1560684572929873</v>
       </c>
       <c r="E439" t="n">
         <v>0.2137217442968593</v>
@@ -8618,7 +8573,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C440" t="n">
-        <v>0.0144888960147852</v>
+        <v>0.01448889601478869</v>
       </c>
       <c r="D440" t="n">
         <v>-0.02977328969623771</v>
@@ -8637,7 +8592,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C441" t="n">
-        <v>0.02112982116986793</v>
+        <v>0.03517288026900206</v>
       </c>
       <c r="D441" t="n">
         <v>-0.001155562380200659</v>
@@ -8656,14 +8611,11 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C442" t="n">
-        <v>1.00232663172922</v>
+        <v>0.5428693968146376</v>
       </c>
       <c r="D442" t="n">
         <v>0.4766140944374736</v>
       </c>
-      <c r="E442" t="n">
-        <v>0.3100740899164647</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -8691,7 +8643,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C444" t="n">
-        <v>0.2952321674171546</v>
+        <v>0.2952321674171552</v>
       </c>
       <c r="D444" t="n">
         <v>2.230802085789974</v>
@@ -8710,7 +8662,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C445" t="n">
-        <v>0.3843604160767147</v>
+        <v>0.3683529752131163</v>
       </c>
       <c r="D445" t="n">
         <v>-0.639225254621128</v>
@@ -8729,7 +8681,7 @@
         <v>0.6415460290875237</v>
       </c>
       <c r="C446" t="n">
-        <v>0.0392990317297599</v>
+        <v>0.6047788045779466</v>
       </c>
       <c r="D446" t="n">
         <v>4.657369063401902</v>
@@ -8748,7 +8700,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C447" t="n">
-        <v>0.100163557284369</v>
+        <v>0.08397632678134868</v>
       </c>
       <c r="D447" t="n">
         <v>-0.0519055049202514</v>
@@ -8767,7 +8719,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C448" t="n">
-        <v>0.1116900909323222</v>
+        <v>0.1119894363096599</v>
       </c>
       <c r="D448" t="n">
         <v>-0.3624757657441532</v>
@@ -8786,7 +8738,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C449" t="n">
-        <v>1.549028092004517</v>
+        <v>0.4575159180718623</v>
       </c>
       <c r="D449" t="n">
         <v>-12.63799778492106</v>
@@ -8805,7 +8757,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C450" t="n">
-        <v>0.09286469316353681</v>
+        <v>0.07784060245159583</v>
       </c>
       <c r="D450" t="n">
         <v>-9.008653417411052</v>
@@ -8824,7 +8776,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C451" t="n">
-        <v>0.05846346664280759</v>
+        <v>0.0584634666428039</v>
       </c>
       <c r="D451" t="n">
         <v>-0.0388989670154725</v>
@@ -8843,7 +8795,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.06617727158963543</v>
+        <v>-0.06617727158963578</v>
       </c>
       <c r="D452" t="n">
         <v>-0.4839540373627217</v>
@@ -8862,7 +8814,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C453" t="n">
-        <v>0.2489497438277776</v>
+        <v>0.248949743827773</v>
       </c>
       <c r="D453" t="n">
         <v>-9.264522139208113</v>
@@ -8881,7 +8833,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C454" t="n">
-        <v>0.4179897094761451</v>
+        <v>-0.2007221007503584</v>
       </c>
       <c r="E454" t="n">
         <v>0.1456667072131009</v>
@@ -8913,7 +8865,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C456" t="n">
-        <v>0.3365794712897137</v>
+        <v>0.3365794712897125</v>
       </c>
       <c r="D456" t="n">
         <v>2.56774554369972</v>
@@ -8932,7 +8884,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.09486993155575141</v>
+        <v>-0.09486993155575175</v>
       </c>
       <c r="D457" t="n">
         <v>-0.1062119961862516</v>
@@ -8951,7 +8903,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C458" t="n">
-        <v>0.1901814264009901</v>
+        <v>0.1848857713832504</v>
       </c>
       <c r="D458" t="n">
         <v>-0.9307776453797169</v>
@@ -8970,10 +8922,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.06287047753951522</v>
-      </c>
-      <c r="E459" t="n">
-        <v>0.1602526344326973</v>
+        <v>0.7288398591748795</v>
       </c>
     </row>
     <row r="460">
@@ -8986,7 +8935,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C460" t="n">
-        <v>0.3229978214003775</v>
+        <v>0.3138514440890887</v>
       </c>
       <c r="D460" t="n">
         <v>0.4510810580033204</v>
@@ -9005,7 +8954,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C461" t="n">
-        <v>0.3067333476999223</v>
+        <v>-0.06950990388313065</v>
       </c>
       <c r="D461" t="n">
         <v>-0.1395379764468888</v>
@@ -9024,7 +8973,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C462" t="n">
-        <v>0.02062750173772529</v>
+        <v>0.02062750173772592</v>
       </c>
       <c r="D462" t="n">
         <v>0.9093289728353412</v>
@@ -9043,7 +8992,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C463" t="n">
-        <v>0.1143921692846854</v>
+        <v>0.09412423735543106</v>
       </c>
       <c r="D463" t="n">
         <v>0.1722440110042171</v>
@@ -9062,7 +9011,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C464" t="n">
-        <v>0.263480439240002</v>
+        <v>0.2631716811601214</v>
       </c>
       <c r="D464" t="n">
         <v>0.5419198197617562</v>
@@ -9081,7 +9030,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C465" t="n">
-        <v>0.3970785587914447</v>
+        <v>0.3970785587914466</v>
       </c>
       <c r="D465" t="n">
         <v>0.3454562845379581</v>
@@ -9100,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>-0.07710703825025626</v>
+        <v>0.04276873491824005</v>
       </c>
       <c r="D466" t="n">
         <v>-0.03763611884118639</v>
@@ -9119,7 +9068,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C467" t="n">
-        <v>0.1983424535205047</v>
+        <v>0.5663684736580584</v>
       </c>
       <c r="D467" t="n">
         <v>0.2139790055316989</v>
@@ -9137,6 +9086,9 @@
       <c r="B468" t="n">
         <v>0.1110313123887439</v>
       </c>
+      <c r="C468" t="n">
+        <v>0.3113781283896553</v>
+      </c>
       <c r="D468" t="n">
         <v>6.186487383755026</v>
       </c>
@@ -9154,7 +9106,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C469" t="n">
-        <v>0.2087095760760534</v>
+        <v>0.2186494399831189</v>
       </c>
       <c r="D469" t="n">
         <v>0.9488755074354595</v>
@@ -9173,7 +9125,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C470" t="n">
-        <v>0.1951278464442349</v>
+        <v>0.1646002491713022</v>
       </c>
       <c r="E470" t="n">
         <v>0.2214016626303127</v>
@@ -9189,7 +9141,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C471" t="n">
-        <v>0.2176247532800599</v>
+        <v>0.2163962306050097</v>
       </c>
       <c r="D471" t="n">
         <v>-0.1386860890712701</v>
@@ -9208,7 +9160,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C472" t="n">
-        <v>0.1789498120913486</v>
+        <v>0.1789498120913429</v>
       </c>
       <c r="D472" t="n">
         <v>1.845585794979893</v>
@@ -9227,7 +9179,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C473" t="n">
-        <v>-0.2000101656230818</v>
+        <v>-0.2057128808888735</v>
       </c>
       <c r="D473" t="n">
         <v>-9.382299585839872</v>
@@ -9246,7 +9198,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C474" t="n">
-        <v>0.09376582134717015</v>
+        <v>0.09376582134716925</v>
       </c>
       <c r="D474" t="n">
         <v>-0.2944828516293032</v>
@@ -9265,7 +9217,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C475" t="n">
-        <v>-0.3828942058590188</v>
+        <v>-0.1622426604403798</v>
       </c>
       <c r="D475" t="n">
         <v>0.08603015792566719</v>
@@ -9284,7 +9236,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C476" t="n">
-        <v>-0.04494893905399514</v>
+        <v>-0.04385450323829224</v>
       </c>
       <c r="D476" t="n">
         <v>0.1605498943531448</v>
@@ -9303,7 +9255,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.03007350857740671</v>
+        <v>-0.03749250590441769</v>
       </c>
       <c r="D477" t="n">
         <v>-1.031768732241481</v>
@@ -9322,7 +9274,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C478" t="n">
-        <v>0.05835832400676457</v>
+        <v>0.05835832400676857</v>
       </c>
       <c r="D478" t="n">
         <v>0.2822911767771585</v>
@@ -9341,7 +9293,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C479" t="n">
-        <v>-0.2953914767509659</v>
+        <v>-0.2946016736642024</v>
       </c>
       <c r="D479" t="n">
         <v>0.01532612438478949</v>
@@ -9360,7 +9312,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C480" t="n">
-        <v>0.1859295095771099</v>
+        <v>1.657085256200787</v>
       </c>
       <c r="D480" t="n">
         <v>-0.3095594979135117</v>
@@ -9379,7 +9331,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C481" t="n">
-        <v>-0.06040033961009912</v>
+        <v>-0.04552058180383584</v>
       </c>
       <c r="D481" t="n">
         <v>0.1478270155318943</v>
@@ -9398,7 +9350,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C482" t="n">
-        <v>-0.1312526029676796</v>
+        <v>-0.1502467688305345</v>
       </c>
       <c r="D482" t="n">
         <v>0.323424025132351</v>
@@ -9417,7 +9369,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C483" t="n">
-        <v>0.1034385822475139</v>
+        <v>0.103084991024152</v>
       </c>
       <c r="D483" t="n">
         <v>0.1619972785747844</v>
@@ -9436,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>0.01601530314642204</v>
+        <v>0.1496295323132756</v>
       </c>
       <c r="D484" t="n">
         <v>-0.1932931384146534</v>
@@ -9455,7 +9407,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C485" t="n">
-        <v>-0.009927634502708171</v>
+        <v>0.2782719075353201</v>
       </c>
       <c r="D485" t="n">
         <v>0.3150275105141114</v>
@@ -9474,7 +9426,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C486" t="n">
-        <v>0.3496476469335091</v>
+        <v>0.3488271827637899</v>
       </c>
       <c r="D486" t="n">
         <v>15.78165321750145</v>
@@ -9493,7 +9445,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C487" t="n">
-        <v>0.1205537446728801</v>
+        <v>0.116057282102693</v>
       </c>
       <c r="D487" t="n">
         <v>0.2885603348615988</v>
@@ -9512,7 +9464,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C488" t="n">
-        <v>0.300402612300107</v>
+        <v>0.2976069264575904</v>
       </c>
       <c r="D488" t="n">
         <v>0.1632136681665288</v>
@@ -9531,7 +9483,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C489" t="n">
-        <v>0.05070641724447961</v>
+        <v>0.05070641724448517</v>
       </c>
       <c r="D489" t="n">
         <v>-11.92971425131241</v>
@@ -9550,7 +9502,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C490" t="n">
-        <v>0.03430865776567636</v>
+        <v>0.03430865776568011</v>
       </c>
       <c r="D490" t="n">
         <v>-0.6452101527632927</v>
@@ -9569,7 +9521,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C491" t="n">
-        <v>0.13900706262406</v>
+        <v>0.1390070626240588</v>
       </c>
       <c r="D491" t="n">
         <v>0.384934550026789</v>
@@ -9588,7 +9540,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C492" t="n">
-        <v>0.03465907197866024</v>
+        <v>0.2588581423724408</v>
       </c>
       <c r="D492" t="n">
         <v>1.057980837725235</v>
@@ -9607,7 +9559,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.1897116816026416</v>
+        <v>-0.1893387596862195</v>
       </c>
       <c r="E493" t="n">
         <v>-0.1908135347953507</v>
@@ -9623,7 +9575,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C494" t="n">
-        <v>0.1703958127870447</v>
+        <v>0.1684497052721932</v>
       </c>
       <c r="D494" t="n">
         <v>0.03229329924630476</v>
@@ -9642,7 +9594,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C495" t="n">
-        <v>-0.0714046265952278</v>
+        <v>-0.07160168916087957</v>
       </c>
       <c r="D495" t="n">
         <v>-0.2139070910428364</v>
@@ -9661,7 +9613,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C496" t="n">
-        <v>0.2399170084773978</v>
+        <v>0.2396441067380201</v>
       </c>
       <c r="D496" t="n">
         <v>0.1882209854469421</v>
@@ -9680,7 +9632,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C497" t="n">
-        <v>0.2246835432376224</v>
+        <v>0.2246835432376229</v>
       </c>
       <c r="D497" t="n">
         <v>0.2895076168632678</v>
@@ -9699,7 +9651,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C498" t="n">
-        <v>0.2565515458898421</v>
+        <v>0.2562670411578281</v>
       </c>
       <c r="D498" t="n">
         <v>5.816370319415323</v>
@@ -9718,14 +9670,11 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C499" t="n">
-        <v>0.2064769530182995</v>
+        <v>-1.576212475608881</v>
       </c>
       <c r="D499" t="n">
         <v>-2.157147705426609</v>
       </c>
-      <c r="E499" t="n">
-        <v>-0.4107811885822957</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -9737,7 +9686,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C500" t="n">
-        <v>-0.05681850142251067</v>
+        <v>2.03327480371427</v>
       </c>
       <c r="D500" t="n">
         <v>-0.2079012651301866</v>
@@ -9756,7 +9705,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C501" t="n">
-        <v>-0.06434689240992628</v>
+        <v>-0.2988195994249156</v>
       </c>
       <c r="E501" t="n">
         <v>-0.09795840980743911</v>
@@ -9772,7 +9721,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C502" t="n">
-        <v>-0.1421894618144269</v>
+        <v>-0.1416900865789496</v>
       </c>
       <c r="D502" t="n">
         <v>14.94359997030115</v>
@@ -9791,7 +9740,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C503" t="n">
-        <v>0.5459176807105387</v>
+        <v>-0.5880099709978077</v>
       </c>
       <c r="D503" t="n">
         <v>0.135984586939069</v>
@@ -9810,7 +9759,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C504" t="n">
-        <v>0.2923651846765842</v>
+        <v>0.2689674651935453</v>
       </c>
       <c r="D504" t="n">
         <v>1.78463587524089</v>
@@ -9829,7 +9778,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C505" t="n">
-        <v>0.3674641133004607</v>
+        <v>0.3669610815516758</v>
       </c>
       <c r="E505" t="n">
         <v>0.44355656972693</v>
@@ -9845,7 +9794,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C506" t="n">
-        <v>0.2511052571091702</v>
+        <v>0.2511052571091645</v>
       </c>
       <c r="D506" t="n">
         <v>0.002003451009939225</v>
@@ -9864,7 +9813,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C507" t="n">
-        <v>0.3964094035145396</v>
+        <v>0.3995544676424504</v>
       </c>
       <c r="E507" t="n">
         <v>0.3922863108464555</v>
@@ -9880,7 +9829,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C508" t="n">
-        <v>0.1375156912554142</v>
+        <v>0.137515691255413</v>
       </c>
       <c r="D508" t="n">
         <v>0.2469675830972169</v>
@@ -9899,7 +9848,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C509" t="n">
-        <v>0.167789387740116</v>
+        <v>0.1677893877401118</v>
       </c>
       <c r="D509" t="n">
         <v>0.4880474012527565</v>
@@ -9918,7 +9867,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C510" t="n">
-        <v>-0.05950241224678559</v>
+        <v>-0.05080596062091872</v>
       </c>
       <c r="D510" t="n">
         <v>0.3720949036583088</v>
@@ -9937,7 +9886,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C511" t="n">
-        <v>0.1389357507780539</v>
+        <v>0.1419496769980225</v>
       </c>
       <c r="D511" t="n">
         <v>2.756390579968665</v>
@@ -9972,7 +9921,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C513" t="n">
-        <v>0.1305412480028557</v>
+        <v>0.1305412480028583</v>
       </c>
       <c r="D513" t="n">
         <v>0.1930244565126622</v>
@@ -9991,7 +9940,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C514" t="n">
-        <v>0.3110189691010556</v>
+        <v>0.3119813272062071</v>
       </c>
       <c r="D514" t="n">
         <v>0.7666278732228821</v>
@@ -10010,7 +9959,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C515" t="n">
-        <v>0.2982310153845893</v>
+        <v>0.2982310153845836</v>
       </c>
       <c r="D515" t="n">
         <v>0.2361443319346151</v>
@@ -10029,7 +9978,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C516" t="n">
-        <v>0.3493659384716166</v>
+        <v>-0.5315238162411702</v>
       </c>
       <c r="D516" t="n">
         <v>-2.087248253327632</v>
@@ -10064,7 +10013,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C518" t="n">
-        <v>0.002747866765027745</v>
+        <v>0.007996422043183597</v>
       </c>
       <c r="E518" t="n">
         <v>-0.02370259120377146</v>
@@ -10080,7 +10029,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C519" t="n">
-        <v>0.3935110203967799</v>
+        <v>-0.9467288789253395</v>
       </c>
       <c r="D519" t="n">
         <v>1.21608252036207</v>
@@ -10099,7 +10048,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C520" t="n">
-        <v>-0.1668074663626965</v>
+        <v>-0.1303208931513823</v>
       </c>
       <c r="D520" t="n">
         <v>6.837280923535419</v>
@@ -10118,7 +10067,7 @@
         <v>0.4646682670034443</v>
       </c>
       <c r="C521" t="n">
-        <v>0.3183564342527956</v>
+        <v>0.318152072039705</v>
       </c>
       <c r="E521" t="n">
         <v>0.3389607277952043</v>
@@ -10134,7 +10083,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C522" t="n">
-        <v>0.06543009064942336</v>
+        <v>0.06543009064942305</v>
       </c>
       <c r="D522" t="n">
         <v>0.08270206406113217</v>
@@ -10153,7 +10102,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C523" t="n">
-        <v>0.02950108984638822</v>
+        <v>0.03119074951672406</v>
       </c>
       <c r="D523" t="n">
         <v>-0.1058840112517463</v>
@@ -10172,7 +10121,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C524" t="n">
-        <v>0.3203019590641344</v>
+        <v>0.3231175851054037</v>
       </c>
       <c r="D524" t="n">
         <v>0.2095059316088395</v>
@@ -10191,7 +10140,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C525" t="n">
-        <v>0.4613798714987813</v>
+        <v>0.461379871498786</v>
       </c>
       <c r="D525" t="n">
         <v>0.00230622757667033</v>
@@ -10209,9 +10158,6 @@
       <c r="B526" t="n">
         <v>0.4646682670034443</v>
       </c>
-      <c r="E526" t="n">
-        <v>0.198827926048456</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -10223,7 +10169,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C527" t="n">
-        <v>0.08401161264559165</v>
+        <v>0.07223640660798268</v>
       </c>
       <c r="D527" t="n">
         <v>-10.38868519149874</v>
@@ -10242,7 +10188,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C528" t="n">
-        <v>-0.15696377794699</v>
+        <v>-0.1542968339979086</v>
       </c>
       <c r="D528" t="n">
         <v>-0.01764542071765735</v>
@@ -10261,7 +10207,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C529" t="n">
-        <v>1.189925339969685</v>
+        <v>0.7547025294605505</v>
       </c>
       <c r="D529" t="n">
         <v>0.1883580095443092</v>
@@ -10280,7 +10226,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C530" t="n">
-        <v>0.2807428616401096</v>
+        <v>0.2807428616401059</v>
       </c>
       <c r="D530" t="n">
         <v>0.152105681445443</v>
@@ -10299,7 +10245,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C531" t="n">
-        <v>0.08619041369608303</v>
+        <v>-1.411560696563127</v>
       </c>
       <c r="D531" t="n">
         <v>-0.4649091990722907</v>
@@ -10318,7 +10264,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C532" t="n">
-        <v>-0.1391136855900071</v>
+        <v>0.2580715100607699</v>
       </c>
       <c r="D532" t="n">
         <v>-2.208530224406583</v>
@@ -10337,7 +10283,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C533" t="n">
-        <v>-1.164474405251235</v>
+        <v>0.09368975668225897</v>
       </c>
       <c r="D533" t="n">
         <v>-0.339364519456242</v>
@@ -10356,7 +10302,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C534" t="n">
-        <v>0.3448827237269224</v>
+        <v>0.3448827237269226</v>
       </c>
       <c r="D534" t="n">
         <v>0.1674530810380534</v>
@@ -10375,7 +10321,7 @@
         <v>0.5655971758542251</v>
       </c>
       <c r="C535" t="n">
-        <v>0.4849638113919539</v>
+        <v>0.4817837849055683</v>
       </c>
       <c r="D535" t="n">
         <v>3.153182976513432</v>
@@ -10394,7 +10340,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C536" t="n">
-        <v>0.108301284832347</v>
+        <v>0.1081238315675636</v>
       </c>
       <c r="D536" t="n">
         <v>-0.2057434599905095</v>
@@ -10413,7 +10359,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C537" t="n">
-        <v>-2.337774009353567</v>
+        <v>-6.426554573954816</v>
       </c>
       <c r="D537" t="n">
         <v>0.5170354814222997</v>
@@ -10432,7 +10378,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C538" t="n">
-        <v>0.006854419608555079</v>
+        <v>0.0074162546472107</v>
       </c>
       <c r="D538" t="n">
         <v>0.107739810586969</v>
@@ -10451,7 +10397,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C539" t="n">
-        <v>0.172437003046236</v>
+        <v>0.1724370030462413</v>
       </c>
       <c r="D539" t="n">
         <v>0.003330118541944526</v>
@@ -10470,7 +10416,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C540" t="n">
-        <v>0.5455708129406214</v>
+        <v>2.066373897282215</v>
       </c>
       <c r="D540" t="n">
         <v>0.154604227835128</v>
@@ -10489,7 +10435,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C541" t="n">
-        <v>0.4158205695331113</v>
+        <v>0.4158205695331139</v>
       </c>
       <c r="D541" t="n">
         <v>1.076298986621975</v>
@@ -10527,14 +10473,11 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C543" t="n">
-        <v>0.1001641619254319</v>
+        <v>0.08506662410855362</v>
       </c>
       <c r="D543" t="n">
         <v>-0.8653806032068518</v>
       </c>
-      <c r="E543" t="n">
-        <v>0.05185698739719369</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -10546,7 +10489,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C544" t="n">
-        <v>0.007269956147586378</v>
+        <v>0.01184383745469875</v>
       </c>
       <c r="D544" t="n">
         <v>1.913297351219397</v>
@@ -10565,7 +10508,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C545" t="n">
-        <v>0.4118698724911235</v>
+        <v>0.4118698724911259</v>
       </c>
       <c r="D545" t="n">
         <v>0.1099447102524028</v>
@@ -10584,7 +10527,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C546" t="n">
-        <v>0.1498017901687027</v>
+        <v>0.1498017901686969</v>
       </c>
       <c r="D546" t="n">
         <v>6.154172633329873</v>
@@ -10603,7 +10546,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C547" t="n">
-        <v>-1.048538082729986</v>
+        <v>-1.083531082896966</v>
       </c>
       <c r="D547" t="n">
         <v>-1.607262130496145</v>
@@ -10622,7 +10565,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C548" t="n">
-        <v>0.2965385717805755</v>
+        <v>0.2965385717805732</v>
       </c>
       <c r="D548" t="n">
         <v>0.4205888739970293</v>
@@ -10641,7 +10584,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C549" t="n">
-        <v>-0.3432234180896565</v>
+        <v>-1.226317814226967</v>
       </c>
       <c r="D549" t="n">
         <v>-10.48818052653431</v>
@@ -10673,7 +10616,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C551" t="n">
-        <v>-0.01432140134025084</v>
+        <v>-0.06558128325506658</v>
       </c>
       <c r="D551" t="n">
         <v>0.06641540089156543</v>
@@ -10692,7 +10635,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.2651458849243621</v>
+        <v>-0.2431179053699985</v>
       </c>
       <c r="D552" t="n">
         <v>9.757009484291109</v>
@@ -10711,7 +10654,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C553" t="n">
-        <v>0.3659846258153671</v>
+        <v>0.3659846258153683</v>
       </c>
       <c r="D553" t="n">
         <v>0.3260493650110576</v>
@@ -10730,7 +10673,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C554" t="n">
-        <v>-0.04066407631400332</v>
+        <v>-0.03944852375848206</v>
       </c>
       <c r="D554" t="n">
         <v>-0.1322247883725564</v>
@@ -10749,7 +10692,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C555" t="n">
-        <v>1.125153142356045</v>
+        <v>1.375114332255632</v>
       </c>
       <c r="D555" t="n">
         <v>0.1410688439742311</v>
@@ -10768,7 +10711,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C556" t="n">
-        <v>-0.2606187487054193</v>
+        <v>-0.2606973237357119</v>
       </c>
       <c r="D556" t="n">
         <v>2.349400021556064</v>
@@ -10787,7 +10730,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C557" t="n">
-        <v>0.815357938355648</v>
+        <v>2.025378154088542</v>
       </c>
       <c r="D557" t="n">
         <v>8.245465228315354</v>
@@ -10841,7 +10784,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C560" t="n">
-        <v>-0.38642571883062</v>
+        <v>0.01983184670197986</v>
       </c>
       <c r="D560" t="n">
         <v>-0.1461681874379592</v>
@@ -10860,7 +10803,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C561" t="n">
-        <v>0.1587735387559815</v>
+        <v>0.1587735387559873</v>
       </c>
       <c r="D561" t="n">
         <v>0.05838585143585323</v>
@@ -10879,7 +10822,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C562" t="n">
-        <v>0.2438954858486363</v>
+        <v>0.2438954858486393</v>
       </c>
       <c r="D562" t="n">
         <v>0.3236743681689074</v>
@@ -10898,7 +10841,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C563" t="n">
-        <v>0.2324481196193227</v>
+        <v>0.2324481196193238</v>
       </c>
       <c r="D563" t="n">
         <v>0.3284222290163735</v>
@@ -10936,7 +10879,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C565" t="n">
-        <v>-0.2194286829438355</v>
+        <v>-0.2188002858199015</v>
       </c>
       <c r="D565" t="n">
         <v>-0.3930020733726265</v>
@@ -10955,7 +10898,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C566" t="n">
-        <v>-0.2332299608249697</v>
+        <v>-1.581708194002647</v>
       </c>
       <c r="D566" t="n">
         <v>-1.332247514543561</v>
@@ -10974,7 +10917,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C567" t="n">
-        <v>0.302416298351921</v>
+        <v>0.3073483611231324</v>
       </c>
       <c r="E567" t="n">
         <v>0.225565619590774</v>
@@ -10990,7 +10933,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C568" t="n">
-        <v>0.04874543507683164</v>
+        <v>0.04874543507683814</v>
       </c>
       <c r="D568" t="n">
         <v>0.2017633987350597</v>
@@ -11009,7 +10952,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C569" t="n">
-        <v>-0.1813248080042991</v>
+        <v>0.9514657429869789</v>
       </c>
       <c r="D569" t="n">
         <v>8.131575832589906</v>
@@ -11028,7 +10971,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C570" t="n">
-        <v>0.1521048098790393</v>
+        <v>0.1523286525998415</v>
       </c>
       <c r="D570" t="n">
         <v>-0.3561634210675279</v>
@@ -11047,7 +10990,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C571" t="n">
-        <v>-0.0001302835636310632</v>
+        <v>-0.1172688112876939</v>
       </c>
       <c r="D571" t="n">
         <v>-0.245865642010248</v>
@@ -11079,7 +11022,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C573" t="n">
-        <v>0.2940270201671636</v>
+        <v>0.2940270201671689</v>
       </c>
       <c r="D573" t="n">
         <v>0.3060397277500401</v>
@@ -11098,7 +11041,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C574" t="n">
-        <v>0.2174084584739529</v>
+        <v>0.1476229455333621</v>
       </c>
       <c r="D574" t="n">
         <v>0.1716273412435966</v>
@@ -11117,7 +11060,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C575" t="n">
-        <v>-0.2991994585450374</v>
+        <v>-0.2998454990386064</v>
       </c>
       <c r="D575" t="n">
         <v>-0.2810693489273612</v>
@@ -11136,7 +11079,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C576" t="n">
-        <v>1.163127462613359</v>
+        <v>0.4815815283985137</v>
       </c>
       <c r="D576" t="n">
         <v>-0.2937948923253964</v>
@@ -11171,7 +11114,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C578" t="n">
-        <v>-0.2039804863793088</v>
+        <v>-0.3859861130188223</v>
       </c>
       <c r="D578" t="n">
         <v>0.1657050802597299</v>
@@ -11190,7 +11133,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C579" t="n">
-        <v>0.05598160192645836</v>
+        <v>0.0559816019264596</v>
       </c>
       <c r="D579" t="n">
         <v>0.770244795871426</v>
@@ -11209,7 +11152,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C580" t="n">
-        <v>-1.239182924952909</v>
+        <v>0.1758708136122228</v>
       </c>
       <c r="D580" t="n">
         <v>-7.543343928418181</v>
@@ -11228,7 +11171,7 @@
         <v>0.7136958148433589</v>
       </c>
       <c r="C581" t="n">
-        <v>1.166035020602537</v>
+        <v>1.074732154374043</v>
       </c>
       <c r="D581" t="n">
         <v>0.7050569516905099</v>
@@ -11247,7 +11190,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C582" t="n">
-        <v>0.1041915421358806</v>
+        <v>0.1084671717401044</v>
       </c>
       <c r="D582" t="n">
         <v>1.37534144475496</v>
@@ -11266,7 +11209,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C583" t="n">
-        <v>0.05005927639437206</v>
+        <v>0.05077087502816428</v>
       </c>
       <c r="D583" t="n">
         <v>-0.3458188279319128</v>
@@ -11285,7 +11228,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C584" t="n">
-        <v>0.04719548188475504</v>
+        <v>0.03983338575283304</v>
       </c>
       <c r="D584" t="n">
         <v>-0.5988047529843551</v>
@@ -11304,7 +11247,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C585" t="n">
-        <v>0.4993627833169684</v>
+        <v>0.4993627833169711</v>
       </c>
       <c r="D585" t="n">
         <v>0.5964383487298669</v>
@@ -11323,7 +11266,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C586" t="n">
-        <v>0.06775227417096795</v>
+        <v>0.067752274170971</v>
       </c>
       <c r="D586" t="n">
         <v>0.07513373047142879</v>
@@ -11342,7 +11285,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C587" t="n">
-        <v>-0.774515575682874</v>
+        <v>-0.06446009872780559</v>
       </c>
       <c r="D587" t="n">
         <v>10.32476422677742</v>
@@ -11361,7 +11304,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C588" t="n">
-        <v>0.4907311441355673</v>
+        <v>0.5188478935562889</v>
       </c>
       <c r="D588" t="n">
         <v>1.001160124842346</v>
@@ -11380,7 +11323,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C589" t="n">
-        <v>-0.2008583852760453</v>
+        <v>-0.2333562426793493</v>
       </c>
       <c r="D589" t="n">
         <v>0.2778351192514707</v>
@@ -11399,7 +11342,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C590" t="n">
-        <v>0.1380903694956597</v>
+        <v>0.3530456305010846</v>
       </c>
       <c r="D590" t="n">
         <v>-1.729923992188372</v>
@@ -11418,7 +11361,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C591" t="n">
-        <v>-0.1020296575553642</v>
+        <v>0.7377733603202096</v>
       </c>
       <c r="D591" t="n">
         <v>0.273003551469895</v>
@@ -11437,7 +11380,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C592" t="n">
-        <v>1.100402459464737</v>
+        <v>-0.682174475444875</v>
       </c>
       <c r="D592" t="n">
         <v>-9.516392850913393</v>
@@ -11456,7 +11399,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C593" t="n">
-        <v>0.4474860029658452</v>
+        <v>0.04504247641824376</v>
       </c>
       <c r="D593" t="n">
         <v>0.1178282720873364</v>
@@ -11475,7 +11418,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C594" t="n">
-        <v>0.3495204875295672</v>
+        <v>0.3500017066937605</v>
       </c>
       <c r="D594" t="n">
         <v>0.4322653107119791</v>
@@ -11494,7 +11437,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C595" t="n">
-        <v>0.2789182459404356</v>
+        <v>0.2802315778844665</v>
       </c>
       <c r="D595" t="n">
         <v>0.3267312926577892</v>
@@ -11513,7 +11456,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C596" t="n">
-        <v>0.1897262324161259</v>
+        <v>0.1897262324161233</v>
       </c>
       <c r="D596" t="n">
         <v>-0.04805357975071815</v>
@@ -11532,7 +11475,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C597" t="n">
-        <v>-0.4889292572526289</v>
+        <v>0.03092526580782247</v>
       </c>
       <c r="D597" t="n">
         <v>0.3088291740394226</v>
@@ -11551,7 +11494,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C598" t="n">
-        <v>-0.0112546736161013</v>
+        <v>-0.0125324822863548</v>
       </c>
       <c r="D598" t="n">
         <v>0.04047406161935773</v>
@@ -11586,7 +11529,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C600" t="n">
-        <v>0.1586504251485039</v>
+        <v>0.1602652240229684</v>
       </c>
       <c r="D600" t="n">
         <v>0.1585258648920959</v>
@@ -11605,7 +11548,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C601" t="n">
-        <v>0.01621434109123301</v>
+        <v>0.01600628008122988</v>
       </c>
       <c r="D601" t="n">
         <v>0.09365010101546202</v>
@@ -11624,7 +11567,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C602" t="n">
-        <v>-0.1092837051188308</v>
+        <v>-0.06400032312986005</v>
       </c>
       <c r="D602" t="n">
         <v>1.748906590992551</v>
@@ -11643,7 +11586,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C603" t="n">
-        <v>0.4724108044515136</v>
+        <v>0.4727743868730149</v>
       </c>
       <c r="E603" t="n">
         <v>0.5249711144578545</v>
@@ -11659,7 +11602,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C604" t="n">
-        <v>-0.2889898992368492</v>
+        <v>0.1444093574261115</v>
       </c>
       <c r="D604" t="n">
         <v>-0.4072960332013609</v>
@@ -11678,7 +11621,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C605" t="n">
-        <v>0.1360733426753011</v>
+        <v>0.08151548597727511</v>
       </c>
       <c r="D605" t="n">
         <v>-1.111568730083296</v>
@@ -11697,7 +11640,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C606" t="n">
-        <v>-1.032218226693938</v>
+        <v>-1.02255022744664</v>
       </c>
       <c r="D606" t="n">
         <v>-0.1525060938322763</v>
@@ -11716,7 +11659,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C607" t="n">
-        <v>0.3549310959496212</v>
+        <v>0.3549310959496254</v>
       </c>
       <c r="D607" t="n">
         <v>0.02559965849075143</v>
@@ -11735,7 +11678,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C608" t="n">
-        <v>-0.3267622886681714</v>
+        <v>-0.3267622886681711</v>
       </c>
       <c r="D608" t="n">
         <v>-0.1675628406571655</v>
@@ -11754,7 +11697,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.1007997098005691</v>
+        <v>-0.1007997098005696</v>
       </c>
       <c r="D609" t="n">
         <v>-0.03731839027527241</v>
@@ -11773,7 +11716,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C610" t="n">
-        <v>0.6637007270560907</v>
+        <v>0.8070275642960937</v>
       </c>
       <c r="D610" t="n">
         <v>-4.031057877229595</v>
@@ -11792,7 +11735,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C611" t="n">
-        <v>0.4131275415506702</v>
+        <v>0.4131275415506666</v>
       </c>
       <c r="D611" t="n">
         <v>5.295960539076911</v>
@@ -11811,7 +11754,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C612" t="n">
-        <v>0.3483703992786887</v>
+        <v>0.3224928321736942</v>
       </c>
       <c r="D612" t="n">
         <v>-3.013120668775808</v>
@@ -11846,7 +11789,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C614" t="n">
-        <v>0.2619159998341909</v>
+        <v>0.2611252986810887</v>
       </c>
       <c r="D614" t="n">
         <v>0.2071042211868429</v>
@@ -11865,7 +11808,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C615" t="n">
-        <v>0.2496517104206825</v>
+        <v>0.2496517104206804</v>
       </c>
       <c r="D615" t="n">
         <v>0.02232524260898324</v>
@@ -11884,7 +11827,7 @@
         <v>0.7484612330040356</v>
       </c>
       <c r="C616" t="n">
-        <v>0.9989739740404688</v>
+        <v>0.9989739740404703</v>
       </c>
       <c r="D616" t="n">
         <v>0.4864196979531589</v>
@@ -11903,7 +11846,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C617" t="n">
-        <v>0.1279336498446239</v>
+        <v>0.1293044891892282</v>
       </c>
       <c r="E617" t="n">
         <v>0.1238842958652163</v>
@@ -11919,7 +11862,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C618" t="n">
-        <v>0.1308834758926757</v>
+        <v>0.1309427180666307</v>
       </c>
       <c r="D618" t="n">
         <v>0.340822642036142</v>
@@ -11938,7 +11881,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C619" t="n">
-        <v>-0.0605517482747956</v>
+        <v>-0.06055174827479493</v>
       </c>
       <c r="D619" t="n">
         <v>-0.345116585986005</v>
@@ -11957,7 +11900,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C620" t="n">
-        <v>0.01131058827538555</v>
+        <v>-0.3640373034924856</v>
       </c>
       <c r="D620" t="n">
         <v>0.02647035483068079</v>
@@ -11976,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>-0.05876186987115803</v>
+        <v>-0.05876186987115736</v>
       </c>
       <c r="E621" t="n">
         <v>-0.1104915710963153</v>
@@ -11992,7 +11935,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C622" t="n">
-        <v>0.06919346994167319</v>
+        <v>-0.3227237142207905</v>
       </c>
       <c r="D622" t="n">
         <v>0.4618210726142494</v>
@@ -12011,7 +11954,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C623" t="n">
-        <v>0.01658132194884935</v>
+        <v>0.016581321948856</v>
       </c>
       <c r="D623" t="n">
         <v>-0.03452229084566123</v>
@@ -12030,7 +11973,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C624" t="n">
-        <v>0.07323082369768801</v>
+        <v>0.5075573555116237</v>
       </c>
       <c r="D624" t="n">
         <v>0.7162253594726532</v>
@@ -12049,14 +11992,11 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C625" t="n">
-        <v>0.5423646814659515</v>
+        <v>0.1149567323622256</v>
       </c>
       <c r="D625" t="n">
         <v>-1.794723011530819</v>
       </c>
-      <c r="E625" t="n">
-        <v>0.1509545662082409</v>
-      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -12068,7 +12008,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C626" t="n">
-        <v>0.1829292753193346</v>
+        <v>0.1826396841288638</v>
       </c>
       <c r="D626" t="n">
         <v>0.2100388524114666</v>
@@ -12087,7 +12027,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C627" t="n">
-        <v>0.1753537395232848</v>
+        <v>0.1750471419148812</v>
       </c>
       <c r="D627" t="n">
         <v>-13.46933257446234</v>
@@ -12106,7 +12046,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C628" t="n">
-        <v>0.277719554525847</v>
+        <v>0.2775470452537429</v>
       </c>
       <c r="D628" t="n">
         <v>-0.2133735301393462</v>
@@ -12125,7 +12065,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C629" t="n">
-        <v>0.5203234720005969</v>
+        <v>0.9129432657307747</v>
       </c>
       <c r="D629" t="n">
         <v>1.041125132734163</v>
@@ -12144,7 +12084,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C630" t="n">
-        <v>0.1344005818516568</v>
+        <v>0.1321336693258174</v>
       </c>
       <c r="D630" t="n">
         <v>0.05797818167018075</v>
@@ -12163,7 +12103,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C631" t="n">
-        <v>0.1771170631826036</v>
+        <v>0.1781200548724251</v>
       </c>
       <c r="E631" t="n">
         <v>0.192435528137557</v>
@@ -12179,7 +12119,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C632" t="n">
-        <v>0.3349197259867465</v>
+        <v>0.3360129572450017</v>
       </c>
       <c r="D632" t="n">
         <v>0.3314492640534663</v>
@@ -12198,7 +12138,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C633" t="n">
-        <v>0.277372214744163</v>
+        <v>0.2773722147441643</v>
       </c>
       <c r="D633" t="n">
         <v>-0.1568542199166782</v>
@@ -12217,7 +12157,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C634" t="n">
-        <v>0.1808609939935168</v>
+        <v>0.2552774300090023</v>
       </c>
       <c r="D634" t="n">
         <v>3.761178431083769</v>
@@ -12236,7 +12176,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C635" t="n">
-        <v>0.2410522598074724</v>
+        <v>0.2520478296234305</v>
       </c>
       <c r="D635" t="n">
         <v>-0.83406646501709</v>
@@ -12255,14 +12195,11 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C636" t="n">
-        <v>0.6371989809151823</v>
+        <v>1.082792319325227</v>
       </c>
       <c r="D636" t="n">
         <v>-0.311283060583932</v>
       </c>
-      <c r="E636" t="n">
-        <v>0.2175808293890871</v>
-      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -12274,7 +12211,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C637" t="n">
-        <v>0.2472980984094184</v>
+        <v>0.2470363058714131</v>
       </c>
       <c r="D637" t="n">
         <v>0.1958734893898095</v>
@@ -12293,7 +12230,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C638" t="n">
-        <v>0.1805618366242424</v>
+        <v>0.1682790585247944</v>
       </c>
       <c r="D638" t="n">
         <v>-15.21912327025322</v>
@@ -12312,7 +12249,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C639" t="n">
-        <v>0.2527762513907383</v>
+        <v>0.2526395289644772</v>
       </c>
       <c r="D639" t="n">
         <v>0.2368816348775326</v>
@@ -12331,7 +12268,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C640" t="n">
-        <v>1.004852691710495</v>
+        <v>-3.539102873711131</v>
       </c>
       <c r="D640" t="n">
         <v>-0.9242825815196637</v>
@@ -12350,10 +12287,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C641" t="n">
-        <v>0.2228500246999578</v>
-      </c>
-      <c r="E641" t="n">
-        <v>0.1229335493845881</v>
+        <v>0.4208133699165165</v>
       </c>
     </row>
     <row r="642">
@@ -12366,7 +12300,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C642" t="n">
-        <v>0.6670822661911798</v>
+        <v>0.6675509019077858</v>
       </c>
       <c r="D642" t="n">
         <v>0.3808899372722472</v>
@@ -12401,7 +12335,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C644" t="n">
-        <v>0.08331172242445524</v>
+        <v>0.08745016616193034</v>
       </c>
       <c r="E644" t="n">
         <v>0.09187986909067983</v>
@@ -12417,7 +12351,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C645" t="n">
-        <v>0.3050882352726986</v>
+        <v>0.7425945978448298</v>
       </c>
       <c r="D645" t="n">
         <v>0.3969166079533527</v>
@@ -12436,7 +12370,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C646" t="n">
-        <v>-0.02814823792250066</v>
+        <v>-0.04730571477835663</v>
       </c>
       <c r="D646" t="n">
         <v>-7.486145684050223</v>
@@ -12455,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>0.0311242342183737</v>
+        <v>0.03106284556018528</v>
       </c>
       <c r="D647" t="n">
         <v>0.1692687740819165</v>
@@ -12474,7 +12408,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C648" t="n">
-        <v>0.2115693958524649</v>
+        <v>0.2119414567230444</v>
       </c>
       <c r="D648" t="n">
         <v>0.4751563131795413</v>
@@ -12493,7 +12427,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C649" t="n">
-        <v>0.1066906634356165</v>
+        <v>0.1066906634356174</v>
       </c>
       <c r="D649" t="n">
         <v>0.06711327294022343</v>
@@ -12512,7 +12446,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C650" t="n">
-        <v>-0.09980205527726721</v>
+        <v>-0.03893188999943036</v>
       </c>
       <c r="D650" t="n">
         <v>0.3970569373148453</v>
@@ -12531,7 +12465,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C651" t="n">
-        <v>-1.112171771234218</v>
+        <v>0.5751495385596997</v>
       </c>
       <c r="D651" t="n">
         <v>8.176370927581097</v>
@@ -12550,7 +12484,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C652" t="n">
-        <v>0.1303697094974055</v>
+        <v>0.553369523897666</v>
       </c>
       <c r="D652" t="n">
         <v>0.07750296056662997</v>
@@ -12569,7 +12503,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C653" t="n">
-        <v>-0.2154180847507199</v>
+        <v>-0.2180556208053533</v>
       </c>
       <c r="D653" t="n">
         <v>-0.7611670576368292</v>
@@ -12588,7 +12522,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C654" t="n">
-        <v>0.1317492212349821</v>
+        <v>0.1979531275825109</v>
       </c>
       <c r="D654" t="n">
         <v>0.03764105616561201</v>
@@ -12607,7 +12541,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C655" t="n">
-        <v>0.1791799355101895</v>
+        <v>0.1789882279767409</v>
       </c>
       <c r="D655" t="n">
         <v>0.1178306777886106</v>
@@ -12626,7 +12560,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C656" t="n">
-        <v>0.2950587006708112</v>
+        <v>0.2950587006708164</v>
       </c>
       <c r="D656" t="n">
         <v>-0.07392551653300246</v>
@@ -12645,7 +12579,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C657" t="n">
-        <v>0.1145380787615179</v>
+        <v>0.1081172369934428</v>
       </c>
       <c r="D657" t="n">
         <v>-0.03816548951709604</v>
@@ -12664,7 +12598,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C658" t="n">
-        <v>0.2502984168142692</v>
+        <v>0.2585441020426436</v>
       </c>
       <c r="D658" t="n">
         <v>0.2599940349610829</v>
@@ -12683,7 +12617,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C659" t="n">
-        <v>0.7338258866356387</v>
+        <v>0.7454714815033575</v>
       </c>
       <c r="D659" t="n">
         <v>0.4045407051286403</v>
@@ -12702,7 +12636,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C660" t="n">
-        <v>-0.09946360938187884</v>
+        <v>-1.759319213323038</v>
       </c>
       <c r="D660" t="n">
         <v>-1.005910326520569</v>
@@ -12721,7 +12655,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C661" t="n">
-        <v>0.2575414074730335</v>
+        <v>0.2577550293051937</v>
       </c>
       <c r="D661" t="n">
         <v>0.5011746630043501</v>
@@ -12740,7 +12674,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C662" t="n">
-        <v>0.1330744736943412</v>
+        <v>0.1427176971813561</v>
       </c>
       <c r="D662" t="n">
         <v>7.134150380220674</v>
@@ -12759,7 +12693,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C663" t="n">
-        <v>0.08707538156997499</v>
+        <v>0.08707538156998011</v>
       </c>
       <c r="D663" t="n">
         <v>0.1066169479253372</v>
@@ -12778,7 +12712,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C664" t="n">
-        <v>2.036563676240322</v>
+        <v>1.144617745284522</v>
       </c>
       <c r="D664" t="n">
         <v>0.1109867053985764</v>
@@ -12797,7 +12731,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C665" t="n">
-        <v>0.228181135583167</v>
+        <v>0.2118793828874173</v>
       </c>
       <c r="D665" t="n">
         <v>0.2364040715832296</v>
@@ -12816,7 +12750,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C666" t="n">
-        <v>0.07967561776967499</v>
+        <v>0.07527525527366816</v>
       </c>
       <c r="D666" t="n">
         <v>-0.08191246264143938</v>
@@ -12835,7 +12769,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C667" t="n">
-        <v>0.09535765706023513</v>
+        <v>0.09616094677025815</v>
       </c>
       <c r="D667" t="n">
         <v>-6.494100893930442</v>
@@ -12854,7 +12788,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C668" t="n">
-        <v>0.4589146480467949</v>
+        <v>0.458796457325314</v>
       </c>
       <c r="D668" t="n">
         <v>0.7511951409771822</v>
@@ -12873,7 +12807,7 @@
         <v>-0.5563933485243852</v>
       </c>
       <c r="C669" t="n">
-        <v>-0.5704638960397692</v>
+        <v>-0.5703352218476664</v>
       </c>
       <c r="E669" t="n">
         <v>-0.5592455797386445</v>
@@ -12889,7 +12823,7 @@
         <v>0.4329594072761063</v>
       </c>
       <c r="C670" t="n">
-        <v>0.4897508011015133</v>
+        <v>0.1326454977676925</v>
       </c>
       <c r="D670" t="n">
         <v>14.55963079771364</v>
@@ -12908,7 +12842,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C671" t="n">
-        <v>0.652546425813566</v>
+        <v>1.073588635751165</v>
       </c>
       <c r="D671" t="n">
         <v>-0.5946670174610416</v>
@@ -12927,7 +12861,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C672" t="n">
-        <v>0.0234157285774317</v>
+        <v>0.02649246667763049</v>
       </c>
       <c r="E672" t="n">
         <v>0.01139528567786769</v>
@@ -12943,7 +12877,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C673" t="n">
-        <v>0.1819807564175774</v>
+        <v>0.1819807564175771</v>
       </c>
       <c r="D673" t="n">
         <v>0.1594631885538518</v>
@@ -12962,7 +12896,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C674" t="n">
-        <v>0.03290864926040567</v>
+        <v>0.03352973092135081</v>
       </c>
       <c r="D674" t="n">
         <v>-0.2616499377655239</v>
@@ -12981,7 +12915,7 @@
         <v>0.7484612330040356</v>
       </c>
       <c r="C675" t="n">
-        <v>0.5040772582531721</v>
+        <v>0.5043626296399003</v>
       </c>
       <c r="D675" t="n">
         <v>0.6461351070615348</v>
@@ -13000,7 +12934,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C676" t="n">
-        <v>0.1601631509338676</v>
+        <v>0.1592976766866209</v>
       </c>
       <c r="D676" t="n">
         <v>-0.4495129754753835</v>
@@ -13019,7 +12953,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C677" t="n">
-        <v>0.2338279981693</v>
+        <v>0.2338279981693036</v>
       </c>
       <c r="D677" t="n">
         <v>0.2175658760808201</v>
@@ -13038,7 +12972,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C678" t="n">
-        <v>-0.004088888067878432</v>
+        <v>-0.004088888067878111</v>
       </c>
       <c r="D678" t="n">
         <v>-10.62615184899313</v>
@@ -13057,7 +12991,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C679" t="n">
-        <v>0.0526325375687764</v>
+        <v>0.05133172402199524</v>
       </c>
       <c r="D679" t="n">
         <v>0.002753867211171311</v>
@@ -13076,7 +13010,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C680" t="n">
-        <v>0.02010841762256687</v>
+        <v>0.08001653948460108</v>
       </c>
       <c r="E680" t="n">
         <v>0.1806528929278917</v>
@@ -13092,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>-0.01866049185713568</v>
+        <v>-3.922420729349404</v>
       </c>
       <c r="D681" t="n">
         <v>-2.492573674764451</v>
@@ -13111,7 +13045,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C682" t="n">
-        <v>-0.123203659789805</v>
+        <v>-0.003061403879298012</v>
       </c>
       <c r="D682" t="n">
         <v>-2.775172614650303</v>
@@ -13130,7 +13064,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C683" t="n">
-        <v>0.2772447032774923</v>
+        <v>0.2772447032774928</v>
       </c>
       <c r="D683" t="n">
         <v>0.3122594075927906</v>
@@ -13149,7 +13083,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C684" t="n">
-        <v>0.373619220138445</v>
+        <v>0.3741622859824026</v>
       </c>
       <c r="D684" t="n">
         <v>0.5211451959454356</v>
@@ -13168,7 +13102,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C685" t="n">
-        <v>0.9968382100468429</v>
+        <v>0.4108088055449359</v>
       </c>
       <c r="D685" t="n">
         <v>-0.01036294431573305</v>
@@ -13222,7 +13156,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C688" t="n">
-        <v>0.3303054524153644</v>
+        <v>0.3303054524153692</v>
       </c>
       <c r="D688" t="n">
         <v>0.2894191108502951</v>
@@ -13241,7 +13175,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C689" t="n">
-        <v>0.3546578371651446</v>
+        <v>0.4196030836504147</v>
       </c>
       <c r="D689" t="n">
         <v>-0.9371890690204602</v>
@@ -13260,7 +13194,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C690" t="n">
-        <v>0.1055140755698438</v>
+        <v>-0.07716632860795156</v>
       </c>
       <c r="D690" t="n">
         <v>-0.3245353436193377</v>
@@ -13279,7 +13213,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C691" t="n">
-        <v>0.08012846844452695</v>
+        <v>0.07662244323568232</v>
       </c>
       <c r="D691" t="n">
         <v>0.3912983771091896</v>
@@ -13298,7 +13232,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C692" t="n">
-        <v>-0.4093218837895627</v>
+        <v>-0.4190989227454507</v>
       </c>
       <c r="D692" t="n">
         <v>-0.2547967211695077</v>
@@ -13317,7 +13251,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C693" t="n">
-        <v>0.2467281901004418</v>
+        <v>0.2467281901004456</v>
       </c>
       <c r="D693" t="n">
         <v>-0.1462746141881227</v>
@@ -13336,7 +13270,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C694" t="n">
-        <v>-0.09979171610448243</v>
+        <v>0.7828643040107561</v>
       </c>
       <c r="D694" t="n">
         <v>2.60811311193132</v>
@@ -13355,7 +13289,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C695" t="n">
-        <v>0.140517848714025</v>
+        <v>0.1611228546121951</v>
       </c>
       <c r="D695" t="n">
         <v>0.5263649297942351</v>
@@ -13374,7 +13308,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C696" t="n">
-        <v>-0.2433912442234007</v>
+        <v>-0.2424626188145804</v>
       </c>
       <c r="D696" t="n">
         <v>-0.5276535818882219</v>
@@ -13393,7 +13327,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C697" t="n">
-        <v>-0.5162044259809426</v>
+        <v>0.5046767796170879</v>
       </c>
       <c r="D697" t="n">
         <v>-0.1955031706166515</v>
@@ -13412,7 +13346,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C698" t="n">
-        <v>0.09908116046807584</v>
+        <v>0.103868565785637</v>
       </c>
       <c r="D698" t="n">
         <v>-1.374750731427376</v>
@@ -13431,7 +13365,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C699" t="n">
-        <v>-0.4820635603648019</v>
+        <v>-0.4739968113429617</v>
       </c>
       <c r="D699" t="n">
         <v>0.002978418298601219</v>
@@ -13450,7 +13384,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C700" t="n">
-        <v>0.1470631764935176</v>
+        <v>0.1470631764935112</v>
       </c>
       <c r="D700" t="n">
         <v>-0.005153823772609047</v>
@@ -13469,7 +13403,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C701" t="n">
-        <v>0.05706461826283819</v>
+        <v>0.05706461826283758</v>
       </c>
       <c r="E701" t="n">
         <v>0.0472065576061135</v>
@@ -13484,6 +13418,9 @@
       <c r="B702" t="n">
         <v>0.09761079662642233</v>
       </c>
+      <c r="C702" t="n">
+        <v>0.3917646430303741</v>
+      </c>
       <c r="D702" t="n">
         <v>0.6799956766542364</v>
       </c>
@@ -13501,7 +13438,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C703" t="n">
-        <v>0.1320069170934698</v>
+        <v>0.1229356155714874</v>
       </c>
       <c r="D703" t="n">
         <v>0.09609542700469501</v>
@@ -13520,7 +13457,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C704" t="n">
-        <v>0.4823211645080399</v>
+        <v>0.1165338967630896</v>
       </c>
       <c r="D704" t="n">
         <v>11.44944720966567</v>
@@ -13539,7 +13476,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C705" t="n">
-        <v>0.3641800281250784</v>
+        <v>0.3430480149081629</v>
       </c>
       <c r="D705" t="n">
         <v>-0.6702087201693882</v>
@@ -13577,7 +13514,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C707" t="n">
-        <v>0.08945265747982119</v>
+        <v>0.08945265747982148</v>
       </c>
       <c r="E707" t="n">
         <v>0.1434635876251535</v>
@@ -13593,7 +13530,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C708" t="n">
-        <v>-0.03381752388157749</v>
+        <v>-0.03381752388157848</v>
       </c>
       <c r="E708" t="n">
         <v>-0.05294484130676884</v>
@@ -13609,7 +13546,7 @@
         <v>0.6507645591169023</v>
       </c>
       <c r="C709" t="n">
-        <v>0.556217934208297</v>
+        <v>0.5562179342082938</v>
       </c>
       <c r="E709" t="n">
         <v>0.4739937190300702</v>
@@ -13625,10 +13562,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C710" t="n">
-        <v>0.2501687790633716</v>
-      </c>
-      <c r="E710" t="n">
-        <v>0.2067279362375499</v>
+        <v>0.4851056546864811</v>
       </c>
     </row>
     <row r="711">
@@ -13654,7 +13588,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C712" t="n">
-        <v>0.4603051851434845</v>
+        <v>0.4582223446222297</v>
       </c>
       <c r="D712" t="n">
         <v>0.9047556231894321</v>
@@ -13673,7 +13607,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C713" t="n">
-        <v>0.05286269569792378</v>
+        <v>0.1079621457087965</v>
       </c>
       <c r="D713" t="n">
         <v>0.3892382253798184</v>
@@ -13692,7 +13626,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C714" t="n">
-        <v>0.3079032218098476</v>
+        <v>0.7234170290182127</v>
       </c>
       <c r="D714" t="n">
         <v>-0.03267476600450065</v>
@@ -13711,7 +13645,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C715" t="n">
-        <v>-3.832475835192121</v>
+        <v>0.1671462073034428</v>
       </c>
       <c r="D715" t="n">
         <v>1.97846062534033</v>
@@ -13730,7 +13664,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C716" t="n">
-        <v>0.0785491264219879</v>
+        <v>0.07529824413195671</v>
       </c>
       <c r="D716" t="n">
         <v>-18.72288328231817</v>
@@ -13765,7 +13699,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C718" t="n">
-        <v>0.1712076152141049</v>
+        <v>0.718841733757021</v>
       </c>
       <c r="D718" t="n">
         <v>0.2059271199229291</v>
@@ -13784,7 +13718,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C719" t="n">
-        <v>0.2356669988467762</v>
+        <v>0.2740351575377685</v>
       </c>
       <c r="D719" t="n">
         <v>2.18336521025912</v>
@@ -13803,7 +13737,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C720" t="n">
-        <v>0.1103908073814159</v>
+        <v>0.1103908073814126</v>
       </c>
       <c r="D720" t="n">
         <v>0.200010758780053</v>
@@ -13822,7 +13756,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C721" t="n">
-        <v>0.006901025844222404</v>
+        <v>-1.649797157019401</v>
       </c>
       <c r="D721" t="n">
         <v>1.561579382398382</v>
@@ -13841,7 +13775,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C722" t="n">
-        <v>1.14151258370187</v>
+        <v>0.7356078238125672</v>
       </c>
       <c r="D722" t="n">
         <v>0.2219848638800396</v>
@@ -13860,7 +13794,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C723" t="n">
-        <v>0.2641203637630433</v>
+        <v>0.264120363763042</v>
       </c>
       <c r="D723" t="n">
         <v>-0.3366868927992342</v>
@@ -13879,7 +13813,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C724" t="n">
-        <v>0.2743869356473976</v>
+        <v>0.2743869356473966</v>
       </c>
       <c r="D724" t="n">
         <v>0.2655685530878117</v>
@@ -13898,7 +13832,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C725" t="n">
-        <v>0.07345522102326212</v>
+        <v>0.5001325603532606</v>
       </c>
       <c r="D725" t="n">
         <v>0.4392082059967893</v>
@@ -13917,7 +13851,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C726" t="n">
-        <v>-0.4245313941453012</v>
+        <v>-0.4246766432249803</v>
       </c>
       <c r="D726" t="n">
         <v>-0.2208482492937471</v>
@@ -13936,7 +13870,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C727" t="n">
-        <v>0.2243201641695306</v>
+        <v>-0.147006245530523</v>
       </c>
       <c r="D727" t="n">
         <v>0.1835704505762651</v>
@@ -13955,7 +13889,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C728" t="n">
-        <v>0.3185666672477288</v>
+        <v>0.3187739361283237</v>
       </c>
       <c r="D728" t="n">
         <v>0.2495760197145431</v>
@@ -13974,7 +13908,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C729" t="n">
-        <v>0.408639728080693</v>
+        <v>0.42167847117562</v>
       </c>
       <c r="D729" t="n">
         <v>5.053029804127014</v>
@@ -13993,7 +13927,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C730" t="n">
-        <v>0.1004207834459015</v>
+        <v>0.1004207834458994</v>
       </c>
       <c r="D730" t="n">
         <v>0.1411586726532083</v>
@@ -14012,7 +13946,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C731" t="n">
-        <v>-0.08173993516710963</v>
+        <v>-0.1157679424423071</v>
       </c>
       <c r="D731" t="n">
         <v>-0.3595598477816645</v>
@@ -14031,7 +13965,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C732" t="n">
-        <v>-0.1134265189114459</v>
+        <v>-0.11394669019557</v>
       </c>
       <c r="D732" t="n">
         <v>2.779586680692292</v>
@@ -14050,7 +13984,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C733" t="n">
-        <v>0.320533812323215</v>
+        <v>0.3173999944319714</v>
       </c>
       <c r="D733" t="n">
         <v>0.3854422543276351</v>
@@ -14069,7 +14003,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C734" t="n">
-        <v>1.534303479115443</v>
+        <v>1.153435823229551</v>
       </c>
       <c r="D734" t="n">
         <v>1.688852835395501</v>
@@ -14088,7 +14022,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C735" t="n">
-        <v>-0.1363807228347557</v>
+        <v>-0.1346589213029089</v>
       </c>
       <c r="D735" t="n">
         <v>0.09608657601727043</v>
@@ -14107,7 +14041,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C736" t="n">
-        <v>0.162298155372403</v>
+        <v>0.1614892901260196</v>
       </c>
       <c r="D736" t="n">
         <v>0.3194260583719557</v>
@@ -14126,7 +14060,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C737" t="n">
-        <v>0.0885896755926818</v>
+        <v>0.0885896755926836</v>
       </c>
       <c r="D737" t="n">
         <v>9.075121188160539</v>
@@ -14145,7 +14079,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C738" t="n">
-        <v>0.09282978523353869</v>
+        <v>0.09282978523353418</v>
       </c>
       <c r="D738" t="n">
         <v>0.448366527102492</v>
@@ -14164,7 +14098,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C739" t="n">
-        <v>0.1151865468264298</v>
+        <v>0.6328982874202819</v>
       </c>
       <c r="D739" t="n">
         <v>0.1109399975714454</v>
@@ -14183,7 +14117,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C740" t="n">
-        <v>0.347698286646726</v>
+        <v>0.3779216845659433</v>
       </c>
       <c r="D740" t="n">
         <v>16.45874705759229</v>
@@ -14202,7 +14136,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C741" t="n">
-        <v>0.1185805798319762</v>
+        <v>0.1185805798319821</v>
       </c>
       <c r="D741" t="n">
         <v>0.1352530256492172</v>
@@ -14221,7 +14155,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C742" t="n">
-        <v>0.3878408615700746</v>
+        <v>0.2757947407903764</v>
       </c>
       <c r="E742" t="n">
         <v>0.3256356280650116</v>
@@ -14237,7 +14171,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C743" t="n">
-        <v>-0.2566681163341469</v>
+        <v>-0.2434206866637721</v>
       </c>
       <c r="D743" t="n">
         <v>-0.1232407375234224</v>
@@ -14256,7 +14190,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C744" t="n">
-        <v>0.2502040021974563</v>
+        <v>0.2452728431965348</v>
       </c>
       <c r="E744" t="n">
         <v>0.2774325447899826</v>
@@ -14272,7 +14206,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C745" t="n">
-        <v>-0.2324743943636438</v>
+        <v>-0.2321868617187675</v>
       </c>
       <c r="D745" t="n">
         <v>0.1494746042990197</v>
@@ -14291,7 +14225,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C746" t="n">
-        <v>0.1452615783200226</v>
+        <v>0.1381367440626692</v>
       </c>
       <c r="D746" t="n">
         <v>-0.01744973350623672</v>
@@ -14310,7 +14244,7 @@
         <v>-0.5145731728297583</v>
       </c>
       <c r="C747" t="n">
-        <v>-0.07561581607779648</v>
+        <v>-0.4935536003549365</v>
       </c>
       <c r="D747" t="n">
         <v>-0.3551498292807859</v>
@@ -14329,7 +14263,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C748" t="n">
-        <v>0.3894343131538868</v>
+        <v>0.389697314711605</v>
       </c>
       <c r="D748" t="n">
         <v>0.8080248060197187</v>
@@ -14348,7 +14282,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C749" t="n">
-        <v>-0.02030826137529716</v>
+        <v>0.01192418428866488</v>
       </c>
       <c r="D749" t="n">
         <v>0.1857810643300699</v>
@@ -14367,7 +14301,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C750" t="n">
-        <v>0.1614943508796066</v>
+        <v>0.1627363216207031</v>
       </c>
       <c r="D750" t="n">
         <v>0.6276081298507342</v>
@@ -14386,7 +14320,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C751" t="n">
-        <v>0.3337921095376822</v>
+        <v>0.3337921095376771</v>
       </c>
       <c r="D751" t="n">
         <v>0.2885674387556128</v>
@@ -14405,7 +14339,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C752" t="n">
-        <v>-0.2259154879001451</v>
+        <v>-0.2489611727833883</v>
       </c>
       <c r="D752" t="n">
         <v>0.1142441463279613</v>
@@ -14424,7 +14358,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C753" t="n">
-        <v>-0.01854056130779111</v>
+        <v>0.2533180084521892</v>
       </c>
       <c r="D753" t="n">
         <v>0.2801555376438862</v>
@@ -14443,7 +14377,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C754" t="n">
-        <v>0.05364616819170523</v>
+        <v>0.05345331202998196</v>
       </c>
       <c r="D754" t="n">
         <v>-0.05932809387459893</v>
@@ -14462,7 +14396,7 @@
         <v>-0.5563933485243852</v>
       </c>
       <c r="C755" t="n">
-        <v>-0.6399621202348769</v>
+        <v>-0.6399621202348771</v>
       </c>
       <c r="E755" t="n">
         <v>-0.8294662964082827</v>
@@ -14478,7 +14412,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C756" t="n">
-        <v>0.1575467965703801</v>
+        <v>0.1577068736902042</v>
       </c>
       <c r="D756" t="n">
         <v>0.1378298065724936</v>
@@ -14497,7 +14431,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C757" t="n">
-        <v>-0.6100911470780261</v>
+        <v>-1.047604413050918</v>
       </c>
       <c r="D757" t="n">
         <v>0.6592302454586227</v>
@@ -14516,7 +14450,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C758" t="n">
-        <v>0.6977274206290021</v>
+        <v>0.4787029231685158</v>
       </c>
       <c r="D758" t="n">
         <v>1.656062906262968</v>
@@ -14535,7 +14469,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C759" t="n">
-        <v>-0.6689219298002979</v>
+        <v>0.6443225246895674</v>
       </c>
       <c r="D759" t="n">
         <v>9.076445262480153</v>
@@ -14553,15 +14487,9 @@
       <c r="B760" t="n">
         <v>0.411426245726465</v>
       </c>
-      <c r="C760" t="n">
-        <v>0.4223794746200118</v>
-      </c>
       <c r="D760" t="n">
         <v>-12.3666541041839</v>
       </c>
-      <c r="E760" t="n">
-        <v>0.4752021279499047</v>
-      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -14589,7 +14517,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C762" t="n">
-        <v>0.4202241235730702</v>
+        <v>0.4186700932179596</v>
       </c>
       <c r="D762" t="n">
         <v>-0.1387292914769347</v>
@@ -14608,7 +14536,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C763" t="n">
-        <v>0.06788616190090348</v>
+        <v>0.07292973064176193</v>
       </c>
       <c r="D763" t="n">
         <v>0.002061561226264687</v>
@@ -14626,6 +14554,9 @@
       <c r="B764" t="n">
         <v>0.4541758931858021</v>
       </c>
+      <c r="C764" t="n">
+        <v>-0.3654295455890153</v>
+      </c>
       <c r="D764" t="n">
         <v>0.0151208839324224</v>
       </c>
@@ -14643,7 +14574,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C765" t="n">
-        <v>-0.7486339018915084</v>
+        <v>-0.7499827584799993</v>
       </c>
       <c r="D765" t="n">
         <v>-0.4030891340113162</v>
@@ -14662,7 +14593,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C766" t="n">
-        <v>0.5796067968273396</v>
+        <v>0.579606796827344</v>
       </c>
       <c r="D766" t="n">
         <v>-0.125116360080458</v>
@@ -14681,7 +14612,7 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C767" t="n">
-        <v>0.5747979073722008</v>
+        <v>0.574669593676129</v>
       </c>
       <c r="E767" t="n">
         <v>0.590514712110532</v>
@@ -14699,9 +14630,6 @@
       <c r="D768" t="n">
         <v>1.198668029522637</v>
       </c>
-      <c r="E768" t="n">
-        <v>0.155798003864172</v>
-      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -14713,7 +14641,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C769" t="n">
-        <v>-0.2377663879079204</v>
+        <v>-0.2390847825835708</v>
       </c>
       <c r="D769" t="n">
         <v>0.09070650210231312</v>
@@ -14732,7 +14660,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C770" t="n">
-        <v>0.9866044066309572</v>
+        <v>0.9855105314782922</v>
       </c>
       <c r="D770" t="n">
         <v>0.6278611212267268</v>
@@ -14751,7 +14679,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C771" t="n">
-        <v>0.07635534918240182</v>
+        <v>0.07075004674335512</v>
       </c>
       <c r="D771" t="n">
         <v>-0.8202205049629133</v>
@@ -14770,7 +14698,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C772" t="n">
-        <v>-0.06723077256587591</v>
+        <v>-0.0680859563733046</v>
       </c>
       <c r="D772" t="n">
         <v>-0.1952789807506116</v>
@@ -14789,7 +14717,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C773" t="n">
-        <v>-0.208195412991226</v>
+        <v>-0.170388850625249</v>
       </c>
       <c r="D773" t="n">
         <v>0.1963532718921553</v>
@@ -14808,7 +14736,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C774" t="n">
-        <v>0.4493377871874214</v>
+        <v>0.4493377871874188</v>
       </c>
       <c r="D774" t="n">
         <v>0.3778984515425859</v>
@@ -14827,7 +14755,7 @@
         <v>0.5360529002402097</v>
       </c>
       <c r="C775" t="n">
-        <v>0.1095779557425187</v>
+        <v>0.4829623203363689</v>
       </c>
       <c r="D775" t="n">
         <v>-9.782742861824341</v>
@@ -14846,7 +14774,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C776" t="n">
-        <v>-0.1434718141647562</v>
+        <v>-0.139215883277042</v>
       </c>
       <c r="D776" t="n">
         <v>7.335702199260378</v>
@@ -14881,7 +14809,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C778" t="n">
-        <v>0.2435066141722113</v>
+        <v>0.2435066141722059</v>
       </c>
       <c r="E778" t="n">
         <v>0.2526179996766011</v>
@@ -14897,7 +14825,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C779" t="n">
-        <v>-0.5370017125414429</v>
+        <v>0.1394869856388171</v>
       </c>
       <c r="D779" t="n">
         <v>0.2900698773514828</v>
@@ -14916,7 +14844,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C780" t="n">
-        <v>0.2046838592022582</v>
+        <v>0.2045887466684793</v>
       </c>
       <c r="D780" t="n">
         <v>-0.2824800504169931</v>
@@ -14935,7 +14863,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C781" t="n">
-        <v>0.04112788513361026</v>
+        <v>0.03950234516256461</v>
       </c>
       <c r="D781" t="n">
         <v>-0.819082398145237</v>
@@ -14954,7 +14882,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C782" t="n">
-        <v>-0.01287765267112516</v>
+        <v>-0.006290890741981066</v>
       </c>
       <c r="D782" t="n">
         <v>0.1046359314624557</v>
@@ -14973,7 +14901,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C783" t="n">
-        <v>0.2795056261974914</v>
+        <v>0.2747740934885502</v>
       </c>
       <c r="D783" t="n">
         <v>0.4478539084786788</v>
@@ -14992,7 +14920,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C784" t="n">
-        <v>0.06767830783566221</v>
+        <v>0.05312973580437399</v>
       </c>
       <c r="D784" t="n">
         <v>-0.04003285331779056</v>
@@ -15011,7 +14939,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C785" t="n">
-        <v>0.004011693936847946</v>
+        <v>0.00401169393685082</v>
       </c>
       <c r="D785" t="n">
         <v>0.07221700087532765</v>
@@ -15030,7 +14958,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C786" t="n">
-        <v>0.001346687546010396</v>
+        <v>0.007042360175716072</v>
       </c>
       <c r="D786" t="n">
         <v>0.9102914494859452</v>
@@ -15049,7 +14977,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C787" t="n">
-        <v>0.4759564231603841</v>
+        <v>0.4759564231603846</v>
       </c>
       <c r="D787" t="n">
         <v>11.52990015169505</v>
@@ -15068,7 +14996,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C788" t="n">
-        <v>-0.004170502712728907</v>
+        <v>-0.02215179546666422</v>
       </c>
       <c r="D788" t="n">
         <v>-1.032608541945463</v>
@@ -15087,7 +15015,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C789" t="n">
-        <v>0.2078792181408607</v>
+        <v>0.2544570898252674</v>
       </c>
       <c r="D789" t="n">
         <v>2.77677603151088</v>
@@ -15106,7 +15034,7 @@
         <v>0.5655971758542251</v>
       </c>
       <c r="C790" t="n">
-        <v>0.440599403042893</v>
+        <v>0.4405994030428982</v>
       </c>
       <c r="D790" t="n">
         <v>0.2940668813912548</v>
@@ -15125,7 +15053,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C791" t="n">
-        <v>-1.54345883853378</v>
+        <v>-1.962014481350191</v>
       </c>
       <c r="D791" t="n">
         <v>-0.183584350805122</v>
@@ -15144,7 +15072,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C792" t="n">
-        <v>0.4629388662179905</v>
+        <v>0.4606399943645578</v>
       </c>
       <c r="D792" t="n">
         <v>-10.70474840866194</v>
@@ -15163,7 +15091,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C793" t="n">
-        <v>-0.0506672242089738</v>
+        <v>-0.0506672242089743</v>
       </c>
       <c r="D793" t="n">
         <v>-0.2909228296484622</v>
@@ -15182,7 +15110,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C794" t="n">
-        <v>0.00115978356643374</v>
+        <v>0.01920032301654971</v>
       </c>
       <c r="D794" t="n">
         <v>0.3670135022465701</v>
@@ -15201,7 +15129,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C795" t="n">
-        <v>0.3123286177695775</v>
+        <v>0.307803694956513</v>
       </c>
       <c r="D795" t="n">
         <v>0.7624988688917328</v>
@@ -15220,7 +15148,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C796" t="n">
-        <v>0.1375233683849174</v>
+        <v>0.1369081478390557</v>
       </c>
       <c r="E796" t="n">
         <v>0.1406613560453656</v>
@@ -15236,7 +15164,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C797" t="n">
-        <v>1.283332536749978</v>
+        <v>0.7034071634451353</v>
       </c>
       <c r="D797" t="n">
         <v>1.017527168490972</v>
@@ -15255,7 +15183,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C798" t="n">
-        <v>0.1541657989490254</v>
+        <v>0.1541657989490229</v>
       </c>
       <c r="D798" t="n">
         <v>0.127121531386526</v>
@@ -15274,7 +15202,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C799" t="n">
-        <v>0.3574828594229014</v>
+        <v>-0.09172563911780528</v>
       </c>
       <c r="D799" t="n">
         <v>0.1739311858145296</v>
@@ -15293,7 +15221,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C800" t="n">
-        <v>0.2620354448575855</v>
+        <v>0.2690027147578533</v>
       </c>
       <c r="D800" t="n">
         <v>13.40111333945532</v>
@@ -15312,7 +15240,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C801" t="n">
-        <v>0.4302610747464226</v>
+        <v>0.4540166606639335</v>
       </c>
       <c r="D801" t="n">
         <v>1.497859530895837</v>
@@ -15331,7 +15259,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C802" t="n">
-        <v>0.2815360279794384</v>
+        <v>0.2815360279794371</v>
       </c>
       <c r="D802" t="n">
         <v>0.2606617722150127</v>
@@ -15350,7 +15278,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C803" t="n">
-        <v>-0.3283330164019377</v>
+        <v>0.307215021476874</v>
       </c>
       <c r="D803" t="n">
         <v>0.02280921092994899</v>
@@ -15369,7 +15297,7 @@
         <v>-0.5563933485243852</v>
       </c>
       <c r="C804" t="n">
-        <v>-0.9925154097970544</v>
+        <v>-1.270315102781061</v>
       </c>
       <c r="D804" t="n">
         <v>-1.297195102798399</v>
@@ -15388,7 +15316,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C805" t="n">
-        <v>0.2471748516607184</v>
+        <v>0.2457987315341464</v>
       </c>
       <c r="D805" t="n">
         <v>0.421345300306063</v>
@@ -15407,7 +15335,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C806" t="n">
-        <v>0.327607589880564</v>
+        <v>0.3300767083819715</v>
       </c>
       <c r="D806" t="n">
         <v>0.2001061310538277</v>
@@ -15426,7 +15354,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C807" t="n">
-        <v>0.2055467498985248</v>
+        <v>0.2055467498985276</v>
       </c>
       <c r="D807" t="n">
         <v>0.2834395616354977</v>
@@ -15445,7 +15373,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C808" t="n">
-        <v>0.3309004944170011</v>
+        <v>0.330900494416997</v>
       </c>
       <c r="D808" t="n">
         <v>0.8346943509085268</v>
@@ -15464,7 +15392,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C809" t="n">
-        <v>0.4425788443178025</v>
+        <v>0.4427842505105292</v>
       </c>
       <c r="D809" t="n">
         <v>-0.07549583914851311</v>
@@ -15483,7 +15411,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C810" t="n">
-        <v>0.327386455755509</v>
+        <v>0.324595476165185</v>
       </c>
       <c r="D810" t="n">
         <v>-0.9829822301506292</v>
@@ -15502,7 +15430,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C811" t="n">
-        <v>0.05316026800750197</v>
+        <v>0.05316026800749857</v>
       </c>
       <c r="D811" t="n">
         <v>0.06060584924421405</v>
@@ -15540,7 +15468,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C813" t="n">
-        <v>0.1608754974490021</v>
+        <v>0.1522372781774721</v>
       </c>
       <c r="E813" t="n">
         <v>0.1997075577329272</v>
@@ -15556,7 +15484,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C814" t="n">
-        <v>0.04410710154374182</v>
+        <v>0.04233244740511312</v>
       </c>
       <c r="D814" t="n">
         <v>-0.127653463060472</v>
@@ -15591,7 +15519,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C816" t="n">
-        <v>-0.1131177962104217</v>
+        <v>-0.1135658618078248</v>
       </c>
       <c r="D816" t="n">
         <v>-0.3356344494729542</v>
@@ -15610,7 +15538,7 @@
         <v>0.5360529002402097</v>
       </c>
       <c r="C817" t="n">
-        <v>0.7321066275984328</v>
+        <v>0.6647718382164255</v>
       </c>
       <c r="D817" t="n">
         <v>-7.557493933387585</v>
@@ -15629,7 +15557,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C818" t="n">
-        <v>0.3948544981117154</v>
+        <v>0.3941829902842147</v>
       </c>
       <c r="E818" t="n">
         <v>0.3897541621298234</v>
@@ -15645,7 +15573,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C819" t="n">
-        <v>0.2740835465875306</v>
+        <v>0.2740835465875251</v>
       </c>
       <c r="E819" t="n">
         <v>0.2822790806164117</v>
@@ -15661,7 +15589,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C820" t="n">
-        <v>0.3169782222023673</v>
+        <v>0.3164332555638876</v>
       </c>
       <c r="D820" t="n">
         <v>0.346862512314926</v>
@@ -15680,7 +15608,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C821" t="n">
-        <v>0.3002505855316359</v>
+        <v>-1.525343077092532</v>
       </c>
       <c r="D821" t="n">
         <v>2.679891746817523</v>
@@ -15699,7 +15627,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C822" t="n">
-        <v>0.4886698672928809</v>
+        <v>0.4167280839156527</v>
       </c>
       <c r="E822" t="n">
         <v>0.5044961911784849</v>
@@ -15715,7 +15643,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C823" t="n">
-        <v>-0.07540629595349571</v>
+        <v>0.004766198859358344</v>
       </c>
       <c r="D823" t="n">
         <v>3.144526786503648</v>
@@ -15734,7 +15662,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C824" t="n">
-        <v>0.2942705787208634</v>
+        <v>0.2942705787208665</v>
       </c>
       <c r="D824" t="n">
         <v>0.03434038962313558</v>
@@ -15753,7 +15681,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C825" t="n">
-        <v>0.3514462012990284</v>
+        <v>0.3514462012990319</v>
       </c>
       <c r="D825" t="n">
         <v>0.3980148613856998</v>
@@ -15772,7 +15700,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C826" t="n">
-        <v>0.7798107752615978</v>
+        <v>0.7840541845715063</v>
       </c>
       <c r="D826" t="n">
         <v>0.1124215750843875</v>
@@ -15807,7 +15735,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C828" t="n">
-        <v>0.3112556676349305</v>
+        <v>0.3057413686864546</v>
       </c>
       <c r="D828" t="n">
         <v>16.12246051976281</v>
@@ -15826,7 +15754,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C829" t="n">
-        <v>0.07108203007527619</v>
+        <v>0.07108203007526978</v>
       </c>
       <c r="D829" t="n">
         <v>0.1023308647524289</v>
@@ -15845,7 +15773,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C830" t="n">
-        <v>-0.4278094902964366</v>
+        <v>-0.4278094902964363</v>
       </c>
       <c r="D830" t="n">
         <v>0.01916682751305851</v>
@@ -15864,7 +15792,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C831" t="n">
-        <v>0.1786504329401555</v>
+        <v>0.1786504329401501</v>
       </c>
       <c r="D831" t="n">
         <v>0.2068175224853093</v>
@@ -15883,7 +15811,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C832" t="n">
-        <v>2.248264291180946</v>
+        <v>0.1984934062837832</v>
       </c>
       <c r="D832" t="n">
         <v>-2.255217513631697</v>
@@ -15902,7 +15830,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C833" t="n">
-        <v>0.1208406223265853</v>
+        <v>0.1212814090825033</v>
       </c>
       <c r="D833" t="n">
         <v>2.202726916221816</v>
@@ -15921,7 +15849,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C834" t="n">
-        <v>-0.3515353976558058</v>
+        <v>0.1207556475719089</v>
       </c>
       <c r="D834" t="n">
         <v>14.29207632439257</v>
@@ -15940,7 +15868,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C835" t="n">
-        <v>0.1245006575359759</v>
+        <v>0.1245006575359694</v>
       </c>
       <c r="D835" t="n">
         <v>1.366756232056744</v>
@@ -15959,7 +15887,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C836" t="n">
-        <v>0.4848156898290195</v>
+        <v>0.4848156898290181</v>
       </c>
       <c r="D836" t="n">
         <v>-10.42690590145579</v>
@@ -15978,7 +15906,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C837" t="n">
-        <v>-0.4658111909731946</v>
+        <v>-0.4669409698540624</v>
       </c>
       <c r="D837" t="n">
         <v>2.029912807941975</v>
@@ -15997,7 +15925,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C838" t="n">
-        <v>-0.4741136039912087</v>
+        <v>-0.4741136039912085</v>
       </c>
       <c r="D838" t="n">
         <v>-0.4880322310993701</v>
@@ -16016,7 +15944,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C839" t="n">
-        <v>-0.0789288748461047</v>
+        <v>-0.08985960983709683</v>
       </c>
       <c r="D839" t="n">
         <v>-8.707570411543728</v>
@@ -16035,7 +15963,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C840" t="n">
-        <v>0.2555170705696034</v>
+        <v>0.255517070569599</v>
       </c>
       <c r="E840" t="n">
         <v>0.3245039830761045</v>
@@ -16051,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="C841" t="n">
-        <v>-0.004117176344604039</v>
+        <v>-0.004117176344603397</v>
       </c>
       <c r="D841" t="n">
         <v>-0.4037392583353376</v>
@@ -16070,7 +15998,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C842" t="n">
-        <v>0.07238343242201918</v>
+        <v>0.07232462079599403</v>
       </c>
       <c r="D842" t="n">
         <v>3.21761739236715</v>
@@ -16089,7 +16017,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C843" t="n">
-        <v>0.5044005535801754</v>
+        <v>0.4548545366227403</v>
       </c>
       <c r="D843" t="n">
         <v>10.96835698626073</v>
@@ -16108,7 +16036,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C844" t="n">
-        <v>0.3136463116393106</v>
+        <v>0.3136463116393128</v>
       </c>
       <c r="E844" t="n">
         <v>0.3443228446098901</v>
@@ -16124,7 +16052,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C845" t="n">
-        <v>0.3023376622800418</v>
+        <v>0.3023376622800426</v>
       </c>
       <c r="D845" t="n">
         <v>-11.90407933688038</v>
@@ -16143,7 +16071,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C846" t="n">
-        <v>0.1144928166174363</v>
+        <v>0.1140840000594605</v>
       </c>
       <c r="D846" t="n">
         <v>1.570478650515825</v>
@@ -16162,7 +16090,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C847" t="n">
-        <v>0.5930386624725087</v>
+        <v>0.3615329358380914</v>
       </c>
       <c r="D847" t="n">
         <v>0.08583598207971935</v>
@@ -16181,7 +16109,7 @@
         <v>0.4329594072761063</v>
       </c>
       <c r="C848" t="n">
-        <v>0.4679574900409058</v>
+        <v>0.4398651830115489</v>
       </c>
       <c r="D848" t="n">
         <v>-2.150713229888937</v>
@@ -16200,7 +16128,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C849" t="n">
-        <v>0.3205005134711395</v>
+        <v>0.3195682126705962</v>
       </c>
       <c r="D849" t="n">
         <v>12.76598446499671</v>
@@ -16219,7 +16147,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C850" t="n">
-        <v>-0.5248706512082723</v>
+        <v>-0.5312016410332295</v>
       </c>
       <c r="D850" t="n">
         <v>-0.9214220543040577</v>
@@ -16238,7 +16166,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C851" t="n">
-        <v>0.5058110347589431</v>
+        <v>0.5084346632382851</v>
       </c>
       <c r="D851" t="n">
         <v>-0.08574684754292949</v>
@@ -16273,7 +16201,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C853" t="n">
-        <v>0.04146236226876528</v>
+        <v>0.04142298579208709</v>
       </c>
       <c r="D853" t="n">
         <v>-0.4750268276785776</v>
@@ -16292,7 +16220,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C854" t="n">
-        <v>0.2796604507530747</v>
+        <v>-0.1090350487785028</v>
       </c>
       <c r="D854" t="n">
         <v>1.448087064033048</v>
@@ -16311,7 +16239,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C855" t="n">
-        <v>0.1027318926010628</v>
+        <v>0.1027318926010619</v>
       </c>
       <c r="D855" t="n">
         <v>0.1101219288837547</v>
@@ -16330,7 +16258,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C856" t="n">
-        <v>4.077511352630699</v>
+        <v>3.146636400127903</v>
       </c>
       <c r="D856" t="n">
         <v>0.4245644366605438</v>
@@ -16349,7 +16277,7 @@
         <v>0.7398481026993274</v>
       </c>
       <c r="C857" t="n">
-        <v>0.5134531645471634</v>
+        <v>0.5145420262275471</v>
       </c>
       <c r="D857" t="n">
         <v>0.3648521101406263</v>
@@ -16368,7 +16296,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C858" t="n">
-        <v>0.5500632451840833</v>
+        <v>0.3531499390525436</v>
       </c>
       <c r="D858" t="n">
         <v>0.6959686888935224</v>
@@ -16387,7 +16315,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C859" t="n">
-        <v>0.1518800032214971</v>
+        <v>0.1280753866426119</v>
       </c>
       <c r="D859" t="n">
         <v>-9.21760523781386</v>
@@ -16406,7 +16334,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C860" t="n">
-        <v>0.219194999299531</v>
+        <v>0.2182909133912697</v>
       </c>
       <c r="D860" t="n">
         <v>0.2158323310622045</v>
@@ -16425,7 +16353,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C861" t="n">
-        <v>0.3725144375127291</v>
+        <v>0.3725144375127323</v>
       </c>
       <c r="D861" t="n">
         <v>-2.440322012883843</v>
@@ -16444,7 +16372,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C862" t="n">
-        <v>0.1693428503875062</v>
+        <v>0.1713417370034173</v>
       </c>
       <c r="D862" t="n">
         <v>16.12242832361162</v>
@@ -16463,7 +16391,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C863" t="n">
-        <v>0.07361116726154258</v>
+        <v>0.07347154035208017</v>
       </c>
       <c r="D863" t="n">
         <v>0.0322047637934168</v>
@@ -16482,14 +16410,11 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C864" t="n">
-        <v>0.04471231506791062</v>
+        <v>0.2625501026844136</v>
       </c>
       <c r="D864" t="n">
         <v>13.91839051573882</v>
       </c>
-      <c r="E864" t="n">
-        <v>0.03736116932575614</v>
-      </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -16501,7 +16426,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C865" t="n">
-        <v>0.2033067554266631</v>
+        <v>0.2038134086507985</v>
       </c>
       <c r="D865" t="n">
         <v>0.1978180326737064</v>
@@ -16520,7 +16445,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C866" t="n">
-        <v>0.2793029431405001</v>
+        <v>0.2793029431405014</v>
       </c>
       <c r="D866" t="n">
         <v>0.3653650563536762</v>
@@ -16539,7 +16464,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C867" t="n">
-        <v>0.5716047944757243</v>
+        <v>0.571604794475729</v>
       </c>
       <c r="D867" t="n">
         <v>7.779706932838113</v>
@@ -16558,7 +16483,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C868" t="n">
-        <v>0.2876528970999396</v>
+        <v>0.2876528970999417</v>
       </c>
       <c r="D868" t="n">
         <v>0.3620580954640281</v>
@@ -16623,7 +16548,7 @@
         <v>-4.058893689053568</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.043513580990266</v>
+        <v>-4.044238704309715</v>
       </c>
       <c r="D2" t="n">
         <v>-14.60034700762598</v>
@@ -16642,7 +16567,7 @@
         <v>-3.473931188332412</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.647730755056346</v>
+        <v>-3.649717833352315</v>
       </c>
       <c r="D3" t="n">
         <v>-4.017126991844759</v>
@@ -16661,7 +16586,7 @@
         <v>-3.473931188332412</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.758790435582583</v>
+        <v>-3.755168866384915</v>
       </c>
       <c r="D4" t="n">
         <v>-4.252807463675937</v>
@@ -16680,7 +16605,7 @@
         <v>-4.643856189774724</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.005296391473204</v>
+        <v>-5.141795194592275</v>
       </c>
       <c r="D5" t="n">
         <v>3.870274310103487</v>
@@ -16699,7 +16624,7 @@
         <v>-3.321928094887362</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.607538249810058</v>
+        <v>-3.607538249810056</v>
       </c>
       <c r="D6" t="n">
         <v>-8.270250848242018</v>
@@ -16718,7 +16643,7 @@
         <v>-4.058893689053568</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.537617510312861</v>
+        <v>-4.768745560424255</v>
       </c>
       <c r="D7" t="n">
         <v>-5.170888574510903</v>
@@ -16753,7 +16678,7 @@
         <v>-4.321928094887363</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.477767090123329</v>
+        <v>-4.542339812235477</v>
       </c>
       <c r="D9" t="n">
         <v>-4.524118561421891</v>
@@ -16772,7 +16697,7 @@
         <v>-4.058893689053568</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.148464374821477</v>
+        <v>-4.14869584488589</v>
       </c>
       <c r="D10" t="n">
         <v>-4.476425861456696</v>
@@ -16791,7 +16716,7 @@
         <v>-4.058893689053568</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.081137698237637</v>
+        <v>-4.081703571961653</v>
       </c>
       <c r="D11" t="n">
         <v>-4.461280373524812</v>
@@ -16829,7 +16754,7 @@
         <v>-4.321928094887363</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.478869673062862</v>
+        <v>-4.73733279979812</v>
       </c>
       <c r="D13" t="n">
         <v>-12.25928652466748</v>
@@ -16926,7 +16851,7 @@
         <v>-1.286304185156641</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.496410453569056</v>
+        <v>-1.449903264611889</v>
       </c>
       <c r="E4" t="n">
         <v>-1.369706255371039</v>
@@ -16942,7 +16867,7 @@
         <v>-1.089267338097087</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.272669877874039</v>
+        <v>-1.565519762516975</v>
       </c>
       <c r="D5" t="n">
         <v>-0.6045025099776667</v>
@@ -16961,7 +16886,7 @@
         <v>-0.9434164716336325</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9291606424931766</v>
+        <v>-0.9330246471962707</v>
       </c>
       <c r="D6" t="n">
         <v>-1.148178461437137</v>
@@ -16980,7 +16905,7 @@
         <v>-0.9714308478032291</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.00289493360888</v>
+        <v>-0.9323235033817661</v>
       </c>
       <c r="D7" t="n">
         <v>2.006938124166655</v>
@@ -16999,7 +16924,7 @@
         <v>-1.029146345659516</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9725886405057823</v>
+        <v>-0.9725886405057826</v>
       </c>
       <c r="D8" t="n">
         <v>-1.129699568290618</v>
@@ -17018,7 +16943,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.997166025386948</v>
+        <v>-0.7286857369631379</v>
       </c>
       <c r="E9" t="n">
         <v>-0.9801685582622833</v>
@@ -17034,7 +16959,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8441901829031413</v>
+        <v>-0.8441901829031401</v>
       </c>
       <c r="D10" t="n">
         <v>-0.7963416586677355</v>
@@ -17053,7 +16978,7 @@
         <v>-1.120294233717712</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.981522082161322</v>
+        <v>-0.9840917946366572</v>
       </c>
       <c r="D11" t="n">
         <v>4.624157347040159</v>
@@ -17072,7 +16997,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9488320505672568</v>
+        <v>-0.9273330583377152</v>
       </c>
       <c r="D12" t="n">
         <v>2.049025816162859</v>
@@ -17091,7 +17016,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9316289808168466</v>
+        <v>-0.841423023034904</v>
       </c>
       <c r="D13" t="n">
         <v>1.988956012068041</v>
@@ -17110,7 +17035,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.960001932068081</v>
+        <v>-0.960001932068082</v>
       </c>
       <c r="D14" t="n">
         <v>-0.9613360098792806</v>
@@ -17129,7 +17054,7 @@
         <v>-0.6438561897747247</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3168974238250361</v>
+        <v>-0.2734978622083414</v>
       </c>
       <c r="D15" t="n">
         <v>0.141125967234227</v>
@@ -17148,7 +17073,7 @@
         <v>-0.7858751946471527</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7936265639583358</v>
+        <v>-0.7895552589842183</v>
       </c>
       <c r="D16" t="n">
         <v>15.02493823029751</v>
@@ -17183,7 +17108,7 @@
         <v>-1.089267338097087</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7070805258503</v>
+        <v>-0.7070805258502989</v>
       </c>
       <c r="D18" t="n">
         <v>-0.1971987007331374</v>
@@ -17202,7 +17127,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9156726206050654</v>
+        <v>-0.4899269568046321</v>
       </c>
       <c r="D19" t="n">
         <v>1.15760887013946</v>
@@ -17221,7 +17146,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8707443487827036</v>
+        <v>-0.8707443487827048</v>
       </c>
       <c r="D20" t="n">
         <v>-0.8347867841592607</v>
@@ -17240,7 +17165,7 @@
         <v>-0.6665762662748083</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4298351206891163</v>
+        <v>-0.4298351206891172</v>
       </c>
       <c r="D21" t="n">
         <v>-9.271511049436661</v>
@@ -17305,7 +17230,7 @@
         <v>-2.736965594166206</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.574329163576672</v>
+        <v>-2.591855350266086</v>
       </c>
       <c r="E2" t="n">
         <v>-2.791276244832781</v>
@@ -17320,6 +17245,9 @@
       <c r="B3" t="n">
         <v>-1.514573172829758</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.97908645715107</v>
+      </c>
       <c r="D3" t="n">
         <v>-1.648170366181269</v>
       </c>
@@ -17337,7 +17265,7 @@
         <v>-2.836501267717121</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.275868630541175</v>
+        <v>-2.191332373416624</v>
       </c>
       <c r="D4" t="n">
         <v>-10.42099559293179</v>
@@ -17356,14 +17284,11 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.246965454749449</v>
+        <v>-6.455645089012057</v>
       </c>
       <c r="D5" t="n">
         <v>-4.373030194880632</v>
       </c>
-      <c r="E5" t="n">
-        <v>-1.932554903574189</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17375,7 +17300,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.882171266986062</v>
+        <v>-1.883265461229556</v>
       </c>
       <c r="D6" t="n">
         <v>-1.971274860165348</v>
@@ -17394,7 +17319,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.951884277947723</v>
+        <v>-1.865644525116738</v>
       </c>
       <c r="D7" t="n">
         <v>-1.269432708087697</v>
@@ -17413,7 +17338,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.800283844988933</v>
+        <v>-1.171978278973421</v>
       </c>
       <c r="D8" t="n">
         <v>-2.949080343028424</v>
@@ -17432,7 +17357,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.852891813596455</v>
+        <v>-1.844333982684613</v>
       </c>
       <c r="D9" t="n">
         <v>-1.217566206411984</v>
@@ -17451,7 +17376,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.7866931578277</v>
+        <v>-1.775031025956858</v>
       </c>
       <c r="D10" t="n">
         <v>-1.396783528787098</v>
@@ -17470,7 +17395,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.896309809019676</v>
+        <v>-1.888143766128453</v>
       </c>
       <c r="D11" t="n">
         <v>-1.941543654650257</v>
@@ -17489,7 +17414,7 @@
         <v>-2.836501267717121</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.800624867577112</v>
+        <v>-2.795901590371898</v>
       </c>
       <c r="D12" t="n">
         <v>-2.918189805117297</v>
@@ -17508,7 +17433,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.025225976288174</v>
+        <v>-2.245979241654063</v>
       </c>
       <c r="D13" t="n">
         <v>5.336030199767881</v>
@@ -17543,7 +17468,7 @@
         <v>-2.836501267717121</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.65099498672955</v>
+        <v>-2.650994986729553</v>
       </c>
       <c r="D15" t="n">
         <v>-1.926493844433059</v>
@@ -17608,7 +17533,7 @@
         <v>3.663344619366085</v>
       </c>
       <c r="C2" t="n">
-        <v>3.776888222929182</v>
+        <v>3.773136227326779</v>
       </c>
       <c r="D2" t="n">
         <v>20.41724429665362</v>
@@ -17627,7 +17552,7 @@
         <v>4.211012193485511</v>
       </c>
       <c r="C3" t="n">
-        <v>3.837329562530382</v>
+        <v>3.838511624816064</v>
       </c>
       <c r="D3" t="n">
         <v>3.887683151314943</v>
@@ -17646,7 +17571,7 @@
         <v>3.904002316283692</v>
       </c>
       <c r="C4" t="n">
-        <v>3.295876743200104</v>
+        <v>1.632403495638474</v>
       </c>
       <c r="D4" t="n">
         <v>5.791824257924386</v>
@@ -17665,7 +17590,7 @@
         <v>4.053980168187652</v>
       </c>
       <c r="C5" t="n">
-        <v>4.138486877262003</v>
+        <v>4.108633921859669</v>
       </c>
       <c r="D5" t="n">
         <v>3.487418674382679</v>
@@ -17684,7 +17609,7 @@
         <v>3.927896453728821</v>
       </c>
       <c r="C6" t="n">
-        <v>3.85245634524725</v>
+        <v>3.853331705807201</v>
       </c>
       <c r="D6" t="n">
         <v>4.042495546848886</v>
@@ -17719,14 +17644,11 @@
         <v>3.035623909730721</v>
       </c>
       <c r="C8" t="n">
-        <v>2.660973246961216</v>
+        <v>3.445162113399728</v>
       </c>
       <c r="D8" t="n">
         <v>3.374314940167136</v>
       </c>
-      <c r="E8" t="n">
-        <v>1.227679839983979</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17738,14 +17660,11 @@
         <v>4.269781238274379</v>
       </c>
       <c r="C9" t="n">
-        <v>3.739409641451887</v>
+        <v>2.205326025132153</v>
       </c>
       <c r="D9" t="n">
         <v>4.914947681391314</v>
       </c>
-      <c r="E9" t="n">
-        <v>4.466929129820835</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17757,7 +17676,7 @@
         <v>4.013462259806563</v>
       </c>
       <c r="C10" t="n">
-        <v>3.510985165394337</v>
+        <v>3.71302753950945</v>
       </c>
       <c r="D10" t="n">
         <v>4.016269794278814</v>
@@ -17778,9 +17697,6 @@
       <c r="D11" t="n">
         <v>-0.7052173817986592</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.7512639965531291</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17811,7 +17727,7 @@
         <v>4.20945336562895</v>
       </c>
       <c r="C13" t="n">
-        <v>5.501036820499954</v>
+        <v>5.48450100152025</v>
       </c>
       <c r="D13" t="n">
         <v>4.731846180761537</v>
@@ -17830,13 +17746,10 @@
         <v>3.995484518877507</v>
       </c>
       <c r="C14" t="n">
-        <v>4.082762049436798</v>
+        <v>4.397998966874028</v>
       </c>
       <c r="D14" t="n">
         <v>6.57065149438457</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.206997434083105</v>
       </c>
     </row>
   </sheetData>
@@ -17895,7 +17808,7 @@
         <v>0.9335726382610239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9772929273716251</v>
+        <v>0.9775660357568963</v>
       </c>
       <c r="D2" t="n">
         <v>0.2660729947346882</v>
@@ -17914,7 +17827,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5628846506776671</v>
+        <v>0.6113362279910765</v>
       </c>
       <c r="D3" t="n">
         <v>7.905863204561228</v>
@@ -17933,7 +17846,7 @@
         <v>1.042644337408494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7374580795484681</v>
+        <v>0.7348391097980632</v>
       </c>
       <c r="D4" t="n">
         <v>1.185746551636294</v>
@@ -17952,7 +17865,7 @@
         <v>0.8797057662822882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8706532390614474</v>
+        <v>0.5352759476156336</v>
       </c>
       <c r="D5" t="n">
         <v>4.877091552687015</v>
@@ -17971,7 +17884,7 @@
         <v>0.8797057662822882</v>
       </c>
       <c r="C6" t="n">
-        <v>1.424348423025864</v>
+        <v>1.598848955080899</v>
       </c>
       <c r="D6" t="n">
         <v>1.85075057047428</v>
@@ -17990,7 +17903,7 @@
         <v>0.9411063109464314</v>
       </c>
       <c r="C7" t="n">
-        <v>1.826840993825047</v>
+        <v>1.826417978123176</v>
       </c>
       <c r="D7" t="n">
         <v>0.9469543193812723</v>
@@ -18009,7 +17922,7 @@
         <v>0.7907720378619999</v>
       </c>
       <c r="C8" t="n">
-        <v>1.073760508260645</v>
+        <v>1.001976746197667</v>
       </c>
       <c r="D8" t="n">
         <v>0.3745536989359676</v>
@@ -18028,7 +17941,7 @@
         <v>0.8399595874895318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6512643926925579</v>
+        <v>0.6696060057654202</v>
       </c>
       <c r="D9" t="n">
         <v>0.6900184725775438</v>
@@ -18047,7 +17960,7 @@
         <v>0.8639384504239717</v>
       </c>
       <c r="C10" t="n">
-        <v>1.10714251020123</v>
+        <v>1.116337449417812</v>
       </c>
       <c r="E10" t="n">
         <v>0.9764041229349758</v>
@@ -18063,7 +17976,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.037526752648039</v>
+        <v>0.4224996526160751</v>
       </c>
       <c r="D11" t="n">
         <v>0.3606544973846217</v>
@@ -18082,7 +17995,7 @@
         <v>0.9107326619029126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8656252092747848</v>
+        <v>0.8654229670313891</v>
       </c>
       <c r="D12" t="n">
         <v>11.58258428580469</v>
@@ -18101,7 +18014,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2082862767012399</v>
+        <v>0.2093864369260494</v>
       </c>
       <c r="D13" t="n">
         <v>-0.09984695095423993</v>
@@ -18120,7 +18033,7 @@
         <v>1.028569152196771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.474987302746663</v>
+        <v>0.6523426195406544</v>
       </c>
       <c r="D14" t="n">
         <v>0.9365505076720513</v>
@@ -18139,7 +18052,7 @@
         <v>0.8718436485093178</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6301927819273271</v>
+        <v>0.760941741245131</v>
       </c>
       <c r="D15" t="n">
         <v>1.855800577557835</v>
@@ -18158,7 +18071,7 @@
         <v>0.9335726382610239</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.7020658925933</v>
+        <v>-1.176491536819712</v>
       </c>
       <c r="D16" t="n">
         <v>0.5555126653974232</v>
@@ -18177,7 +18090,7 @@
         <v>0.8479969065549501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7703749728140787</v>
+        <v>1.288869011402771</v>
       </c>
       <c r="D17" t="n">
         <v>0.2493555389892292</v>
@@ -18196,7 +18109,7 @@
         <v>0.6690267655096307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2586884142604729</v>
+        <v>-0.5034977233696879</v>
       </c>
       <c r="D18" t="n">
         <v>-6.7850274829218</v>
@@ -18215,7 +18128,7 @@
         <v>0.9781956296816515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.02363958760751</v>
+        <v>1.061977340909038</v>
       </c>
       <c r="D19" t="n">
         <v>15.32692067410057</v>
@@ -18234,7 +18147,7 @@
         <v>0.8155754288625726</v>
       </c>
       <c r="C20" t="n">
-        <v>1.528515649446539</v>
+        <v>1.517863491845592</v>
       </c>
       <c r="D20" t="n">
         <v>5.720003647815674</v>
@@ -18253,7 +18166,7 @@
         <v>0.9560566524124029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8837039999015096</v>
+        <v>0.8837039999015068</v>
       </c>
       <c r="D21" t="n">
         <v>-12.06293954124095</v>
@@ -18272,7 +18185,7 @@
         <v>0.8479969065549501</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.294503820589394</v>
+        <v>0.8111044906516365</v>
       </c>
       <c r="D22" t="n">
         <v>-0.7250161213055804</v>
@@ -18291,7 +18204,7 @@
         <v>1.395062799517578</v>
       </c>
       <c r="C23" t="n">
-        <v>1.344128815220284</v>
+        <v>1.344128815220285</v>
       </c>
       <c r="D23" t="n">
         <v>1.341697752771267</v>
@@ -18329,7 +18242,7 @@
         <v>1.214124805352847</v>
       </c>
       <c r="C25" t="n">
-        <v>1.190713440866443</v>
+        <v>1.19071344086644</v>
       </c>
       <c r="D25" t="n">
         <v>0.8488478209995036</v>
@@ -18348,7 +18261,7 @@
         <v>1.042644337408494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9582176614878519</v>
+        <v>-4.108189752116592</v>
       </c>
       <c r="D26" t="n">
         <v>2.595144733778405</v>
@@ -18367,7 +18280,7 @@
         <v>0.6780719051126377</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4284605040835973</v>
+        <v>0.4314033935214722</v>
       </c>
       <c r="D27" t="n">
         <v>0.2862603314576787</v>
@@ -18432,7 +18345,7 @@
         <v>1.510961919277379</v>
       </c>
       <c r="C2" t="n">
-        <v>1.53238414936286</v>
+        <v>1.780692887989989</v>
       </c>
       <c r="D2" t="n">
         <v>3.993633108482916</v>
@@ -18470,7 +18383,7 @@
         <v>2.192194165283345</v>
       </c>
       <c r="C4" t="n">
-        <v>2.055724450239067</v>
+        <v>2.163621130945946</v>
       </c>
       <c r="D4" t="n">
         <v>-0.1372759054589525</v>
@@ -18489,7 +18402,7 @@
         <v>2.025028794491523</v>
       </c>
       <c r="C5" t="n">
-        <v>1.97728152792145</v>
+        <v>1.983866643645546</v>
       </c>
       <c r="D5" t="n">
         <v>4.912768858746288</v>
@@ -18508,7 +18421,7 @@
         <v>1.490570130446201</v>
       </c>
       <c r="C6" t="n">
-        <v>1.76714544837949</v>
+        <v>1.464300937882918</v>
       </c>
       <c r="D6" t="n">
         <v>1.728511400166966</v>
@@ -18527,7 +18440,7 @@
         <v>1.700439718141092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4482882415662028</v>
+        <v>1.625381125433336</v>
       </c>
       <c r="D7" t="n">
         <v>1.699885615383215</v>
@@ -18546,7 +18459,7 @@
         <v>1.613531652917927</v>
       </c>
       <c r="C8" t="n">
-        <v>1.824181549808056</v>
+        <v>2.022016488533498</v>
       </c>
       <c r="D8" t="n">
         <v>-7.562034036254914</v>
@@ -18565,7 +18478,7 @@
         <v>1.443606651475615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7068898873001034</v>
+        <v>0.7068898873001077</v>
       </c>
       <c r="D9" t="n">
         <v>1.277344396432298</v>
@@ -18584,7 +18497,7 @@
         <v>2.250961573533219</v>
       </c>
       <c r="C10" t="n">
-        <v>1.869341372742413</v>
+        <v>1.870158408824634</v>
       </c>
       <c r="D10" t="n">
         <v>1.52573382529241</v>
@@ -18603,7 +18516,7 @@
         <v>1.55581615506164</v>
       </c>
       <c r="C11" t="n">
-        <v>1.486299722828052</v>
+        <v>1.398784438819248</v>
       </c>
       <c r="D11" t="n">
         <v>1.642898090666314</v>
@@ -18641,7 +18554,7 @@
         <v>1.922197848396367</v>
       </c>
       <c r="C13" t="n">
-        <v>2.159194534356682</v>
+        <v>2.160373910968915</v>
       </c>
       <c r="D13" t="n">
         <v>2.058672799628461</v>
@@ -18660,7 +18573,7 @@
         <v>1.959770155211467</v>
       </c>
       <c r="C14" t="n">
-        <v>2.282558868488211</v>
+        <v>2.022342801195323</v>
       </c>
       <c r="D14" t="n">
         <v>2.081756122686166</v>
@@ -18679,7 +18592,7 @@
         <v>2.39231742277876</v>
       </c>
       <c r="C15" t="n">
-        <v>2.395879615361807</v>
+        <v>2.395568857139629</v>
       </c>
       <c r="D15" t="n">
         <v>2.385567868213029</v>
@@ -18698,7 +18611,7 @@
         <v>2.372952097911829</v>
       </c>
       <c r="C16" t="n">
-        <v>2.48245584904508</v>
+        <v>2.484454872561377</v>
       </c>
       <c r="D16" t="n">
         <v>5.04637087893941</v>
@@ -18717,7 +18630,7 @@
         <v>2.301587646603187</v>
       </c>
       <c r="C17" t="n">
-        <v>2.262094000622066</v>
+        <v>2.317474704105498</v>
       </c>
       <c r="D17" t="n">
         <v>3.812569789560872</v>
@@ -18736,7 +18649,7 @@
         <v>2.485426827170242</v>
       </c>
       <c r="C18" t="n">
-        <v>2.618076250519374</v>
+        <v>2.618076250519375</v>
       </c>
       <c r="D18" t="n">
         <v>0.06864213273084241</v>
